--- a/meetings_dumped/kyriakides_cabinet.xlsx
+++ b/meetings_dumped/kyriakides_cabinet.xlsx
@@ -91,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="942">
+  <cellXfs count="947">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -106,6 +106,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
@@ -3289,7 +3304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J188"/>
+  <dimension ref="A1:J189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -3343,5077 +3358,5104 @@
       <c r="J1" s="1" t="n"/>
     </row>
     <row r="2" ht="43.15" customHeight="1">
-      <c r="A2" s="941" t="inlineStr">
+      <c r="A2" s="946" t="inlineStr">
+        <is>
+          <t>Giorgios Rossides, Ines Prainsack</t>
+        </is>
+      </c>
+      <c r="B2" s="943" t="inlineStr">
+        <is>
+          <t>21/04/2023</t>
+        </is>
+      </c>
+      <c r="C2" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D2" s="946" t="inlineStr">
+        <is>
+          <t>Gavi, the Vaccine Alliance</t>
+        </is>
+      </c>
+      <c r="E2" s="946" t="inlineStr">
+        <is>
+          <t>Global Health architecture &amp; vaccine donations</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B2" s="938" t="inlineStr">
+      <c r="B3" s="943" t="inlineStr">
         <is>
           <t>12/04/2023</t>
         </is>
       </c>
-      <c r="C2" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D2" s="941" t="inlineStr">
+      <c r="C3" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D3" s="946" t="inlineStr">
         <is>
           <t>FOMENT DEL TREBALL NACIONAL</t>
         </is>
       </c>
-      <c r="E2" s="941" t="inlineStr">
+      <c r="E3" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 reform of the pharmaceutical legislation</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="941" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B3" s="938" t="inlineStr">
+      <c r="B4" s="943" t="inlineStr">
         <is>
           <t>03/04/2023</t>
         </is>
       </c>
-      <c r="C3" s="941" t="inlineStr">
+      <c r="C4" s="946" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="D3" s="941" t="inlineStr">
+      <c r="D4" s="946" t="inlineStr">
         <is>
           <t>European Liver Patients' Association</t>
         </is>
       </c>
-      <c r="E3" s="941" t="inlineStr">
+      <c r="E4" s="946" t="inlineStr">
         <is>
           <t>VTC meeting on noncommunicable diseases</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="941" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="946" t="inlineStr">
         <is>
           <t>Panayiotis Pourgourides</t>
         </is>
       </c>
-      <c r="B4" s="938" t="inlineStr">
+      <c r="B5" s="943" t="inlineStr">
         <is>
           <t>28/03/2023</t>
         </is>
       </c>
-      <c r="C4" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D4" s="941" t="inlineStr">
+      <c r="C5" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D5" s="946" t="inlineStr">
         <is>
           <t>Compassion in World Farming Brussels</t>
         </is>
       </c>
-      <c r="E4" s="941" t="inlineStr">
+      <c r="E5" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Conference on the revision of the EU legislation protecting farmed animals </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="941" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B5" s="938" t="inlineStr">
+      <c r="B6" s="943" t="inlineStr">
         <is>
           <t>23/03/2023</t>
         </is>
       </c>
-      <c r="C5" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D5" s="941" t="inlineStr">
+      <c r="C6" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D6" s="946" t="inlineStr">
         <is>
           <t>Agroecology Europe</t>
         </is>
       </c>
-      <c r="E5" s="941" t="inlineStr">
+      <c r="E6" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sustainable Food Systems</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="941" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="946" t="inlineStr">
         <is>
           <t>Panayiotis Pourgourides</t>
         </is>
       </c>
-      <c r="B6" s="938" t="inlineStr">
+      <c r="B7" s="943" t="inlineStr">
         <is>
           <t>23/03/2023</t>
         </is>
       </c>
-      <c r="C6" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D6" s="941" t="inlineStr">
+      <c r="C7" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D7" s="946" t="inlineStr">
         <is>
           <t>Eurogroup for Animals</t>
         </is>
       </c>
-      <c r="E6" s="941" t="inlineStr">
+      <c r="E7" s="946" t="inlineStr">
         <is>
           <t>Animal welfare file</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="941" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B7" s="938" t="inlineStr">
+      <c r="B8" s="943" t="inlineStr">
         <is>
           <t>22/03/2023</t>
         </is>
       </c>
-      <c r="C7" s="941" t="inlineStr">
+      <c r="C8" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="D7" s="941" t="inlineStr">
+      <c r="D8" s="946" t="inlineStr">
         <is>
           <t>European Healthcare Distribution Association</t>
         </is>
       </c>
-      <c r="E7" s="941" t="inlineStr">
+      <c r="E8" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Exchange of views on the upcoming pharmaceutical reform</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="941" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B8" s="938" t="inlineStr">
+      <c r="B9" s="943" t="inlineStr">
         <is>
           <t>21/03/2023</t>
         </is>
       </c>
-      <c r="C8" s="941" t="inlineStr">
+      <c r="C9" s="946" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="D8" s="941" t="inlineStr">
+      <c r="D9" s="946" t="inlineStr">
         <is>
           <t>HOTREC, Hotels, Restaurants &amp; Cafés in Europe</t>
         </is>
       </c>
-      <c r="E8" s="941" t="inlineStr">
+      <c r="E9" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Meeting on food waste reduction</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="941" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B9" s="938" t="inlineStr">
+      <c r="B10" s="943" t="inlineStr">
         <is>
           <t>21/03/2023</t>
         </is>
       </c>
-      <c r="C9" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D9" s="941" t="inlineStr">
+      <c r="C10" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D10" s="946" t="inlineStr">
         <is>
           <t>International Federation of Organic Agriculture Movements EU Regional Group</t>
         </is>
       </c>
-      <c r="E9" s="941" t="inlineStr">
+      <c r="E10" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> New Genomic Techniques (NGTs)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="941" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="946" t="inlineStr">
         <is>
           <t>Daphne von Buxhoeveden</t>
         </is>
       </c>
-      <c r="B10" s="938" t="inlineStr">
+      <c r="B11" s="943" t="inlineStr">
         <is>
           <t>14/03/2023</t>
         </is>
       </c>
-      <c r="C10" s="941" t="inlineStr">
+      <c r="C11" s="946" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="D10" s="941" t="inlineStr">
+      <c r="D11" s="946" t="inlineStr">
         <is>
           <t>EuroHealthNet</t>
         </is>
       </c>
-      <c r="E10" s="941" t="inlineStr">
+      <c r="E11" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">VTC meeting on mental health </t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="941" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B11" s="938" t="inlineStr">
+      <c r="B12" s="943" t="inlineStr">
         <is>
           <t>07/03/2023</t>
         </is>
       </c>
-      <c r="C11" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D11" s="941" t="inlineStr">
+      <c r="C12" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D12" s="946" t="inlineStr">
         <is>
           <t>Pesticide Action Network Europe</t>
         </is>
       </c>
-      <c r="E11" s="941" t="inlineStr">
+      <c r="E12" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting: Pesticides </t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="941" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B12" s="938" t="inlineStr">
+      <c r="B13" s="943" t="inlineStr">
         <is>
           <t>07/03/2023</t>
         </is>
       </c>
-      <c r="C12" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D12" s="941" t="inlineStr">
+      <c r="C13" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D13" s="946" t="inlineStr">
         <is>
           <t>WWF European Policy Programme, European Environmental Bureau</t>
         </is>
       </c>
-      <c r="E12" s="941" t="inlineStr">
+      <c r="E13" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sustainable Food Systems</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="941" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala, Panayiotis Pourgourides</t>
         </is>
       </c>
-      <c r="B13" s="938" t="inlineStr">
+      <c r="B14" s="943" t="inlineStr">
         <is>
           <t>06/03/2023</t>
         </is>
       </c>
-      <c r="C13" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D13" s="941" t="inlineStr">
+      <c r="C14" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D14" s="946" t="inlineStr">
         <is>
           <t>European farmers, European agri-cooperatives</t>
         </is>
       </c>
-      <c r="E13" s="941" t="inlineStr">
+      <c r="E14" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> EU animal welfare  </t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="941" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B14" s="938" t="inlineStr">
+      <c r="B15" s="943" t="inlineStr">
         <is>
           <t>06/03/2023</t>
         </is>
       </c>
-      <c r="C14" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D14" s="941" t="inlineStr">
+      <c r="C15" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D15" s="946" t="inlineStr">
         <is>
           <t>Testbiotech</t>
         </is>
       </c>
-      <c r="E14" s="941" t="inlineStr">
+      <c r="E15" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting: New Genomic Techniques (NGTs)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="941" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B15" s="938" t="inlineStr">
+      <c r="B16" s="943" t="inlineStr">
         <is>
           <t>02/03/2023</t>
         </is>
       </c>
-      <c r="C15" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D15" s="941" t="inlineStr">
+      <c r="C16" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D16" s="946" t="inlineStr">
         <is>
           <t>EIT Food ivzw</t>
         </is>
       </c>
-      <c r="E15" s="941" t="inlineStr">
+      <c r="E16" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting: Sustainable food systems and protein diversification</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="941" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B16" s="938" t="inlineStr">
+      <c r="B17" s="943" t="inlineStr">
         <is>
           <t>28/02/2023</t>
         </is>
       </c>
-      <c r="C16" s="941" t="inlineStr">
+      <c r="C17" s="946" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="D16" s="941" t="inlineStr">
+      <c r="D17" s="946" t="inlineStr">
         <is>
           <t>Health Data Hub / Plateforme des données de santé</t>
         </is>
       </c>
-      <c r="E16" s="941" t="inlineStr">
+      <c r="E17" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting on Health Data Space </t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="941" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B17" s="938" t="inlineStr">
+      <c r="B18" s="943" t="inlineStr">
         <is>
           <t>27/02/2023</t>
         </is>
       </c>
-      <c r="C17" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D17" s="941" t="inlineStr">
+      <c r="C18" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D18" s="946" t="inlineStr">
         <is>
           <t>European farmers, European agri-cooperatives</t>
         </is>
       </c>
-      <c r="E17" s="941" t="inlineStr">
+      <c r="E18" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> New Genomic Techniques</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="941" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B18" s="938" t="inlineStr">
+      <c r="B19" s="943" t="inlineStr">
         <is>
           <t>21/02/2023</t>
         </is>
       </c>
-      <c r="C18" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D18" s="941" t="inlineStr">
+      <c r="C19" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D19" s="946" t="inlineStr">
         <is>
           <t>Institute for European Environmental Policy</t>
         </is>
       </c>
-      <c r="E18" s="941" t="inlineStr">
+      <c r="E19" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sustainable Food Systems</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="941" t="inlineStr">
-        <is>
-          <t>Annukka Ojala, Karolina Herbout-Borczak</t>
-        </is>
-      </c>
-      <c r="B19" s="938" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="946" t="inlineStr">
+        <is>
+          <t>Karolina Herbout-Borczak, Annukka Ojala</t>
+        </is>
+      </c>
+      <c r="B20" s="943" t="inlineStr">
         <is>
           <t>15/02/2023</t>
         </is>
       </c>
-      <c r="C19" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D19" s="941" t="inlineStr">
+      <c r="C20" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D20" s="946" t="inlineStr">
         <is>
           <t>Planet Farms</t>
         </is>
       </c>
-      <c r="E19" s="941" t="inlineStr">
+      <c r="E20" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting: Sustainable Food Systems</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="941" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B20" s="938" t="inlineStr">
+      <c r="B21" s="943" t="inlineStr">
         <is>
           <t>08/02/2023</t>
         </is>
       </c>
-      <c r="C20" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D20" s="941" t="inlineStr">
+      <c r="C21" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D21" s="946" t="inlineStr">
         <is>
           <t>European farmers, European agri-cooperatives</t>
         </is>
       </c>
-      <c r="E20" s="941" t="inlineStr">
+      <c r="E21" s="946" t="inlineStr">
         <is>
           <t>Framework on Sustainable Food Systems (FSFS)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="941" t="inlineStr">
-        <is>
-          <t>Giorgios Rossides, Panayiotis Pourgourides</t>
-        </is>
-      </c>
-      <c r="B21" s="938" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="946" t="inlineStr">
+        <is>
+          <t>Panayiotis Pourgourides, Giorgios Rossides</t>
+        </is>
+      </c>
+      <c r="B22" s="943" t="inlineStr">
         <is>
           <t>07/02/2023</t>
         </is>
       </c>
-      <c r="C21" s="941" t="inlineStr">
+      <c r="C22" s="946" t="inlineStr">
         <is>
           <t>On-line</t>
         </is>
       </c>
-      <c r="D21" s="941" t="inlineStr">
+      <c r="D22" s="946" t="inlineStr">
         <is>
           <t>VIER PFOTEN International</t>
         </is>
       </c>
-      <c r="E21" s="941" t="inlineStr">
+      <c r="E22" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Exchange on the future proposals on the revision of the animal welfare legislation</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="941" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides, Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B22" s="938" t="inlineStr">
+      <c r="B23" s="943" t="inlineStr">
         <is>
           <t>18/01/2023</t>
         </is>
       </c>
-      <c r="C22" s="941" t="inlineStr">
+      <c r="C23" s="946" t="inlineStr">
         <is>
           <t>Brussles</t>
         </is>
       </c>
-      <c r="D22" s="941" t="inlineStr">
+      <c r="D23" s="946" t="inlineStr">
         <is>
           <t>International Biocontrol Manufacturers' Association</t>
         </is>
       </c>
-      <c r="E22" s="941" t="inlineStr">
+      <c r="E23" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting on the proposal for a regulation on the sustainable use of plant-protection products (SUR)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="941" t="inlineStr">
-        <is>
-          <t>Ines Prainsack, Annukka Ojala</t>
-        </is>
-      </c>
-      <c r="B23" s="938" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="946" t="inlineStr">
+        <is>
+          <t>Annukka Ojala, Ines Prainsack</t>
+        </is>
+      </c>
+      <c r="B24" s="943" t="inlineStr">
         <is>
           <t>11/01/2023</t>
         </is>
       </c>
-      <c r="C23" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D23" s="941" t="inlineStr">
+      <c r="C24" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D24" s="946" t="inlineStr">
         <is>
           <t>Fédération Européenne des Fabricants d'Aliments Composés</t>
         </is>
       </c>
-      <c r="E23" s="941" t="inlineStr">
+      <c r="E24" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Exchange on the impact of biomass &amp; traditional feed co-products from the biogas sector, on circular feed contributions to the Sustainable Food Systems and a voluntary EU guideline for compound feed labelling. </t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="941" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B24" s="938" t="inlineStr">
+      <c r="B25" s="943" t="inlineStr">
         <is>
           <t>16/12/2022</t>
         </is>
       </c>
-      <c r="C24" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D24" s="941" t="inlineStr">
+      <c r="C25" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D25" s="946" t="inlineStr">
         <is>
           <t>Compassion in World Farming Brussels, European Coordination Via Campesina, European Public Health Alliance, International Federation of Organic Agriculture Movements EU Regional Group, Eurocities, Stichting Fair Trade Advocacy Office, Slow Food, ICLEI - Local Governments for Sustainability European Secretariat, VIER PFOTEN International</t>
         </is>
       </c>
-      <c r="E24" s="941" t="inlineStr">
+      <c r="E25" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting:   Sustainable Food Systems/Procurement </t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="941" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B25" s="938" t="inlineStr">
+      <c r="B26" s="943" t="inlineStr">
         <is>
           <t>07/12/2022</t>
         </is>
       </c>
-      <c r="C25" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D25" s="941" t="inlineStr">
+      <c r="C26" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D26" s="946" t="inlineStr">
         <is>
           <t>AMR Action Fund</t>
         </is>
       </c>
-      <c r="E25" s="941" t="inlineStr">
+      <c r="E26" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Antimicrobial Resistance </t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="941" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B26" s="938" t="inlineStr">
+      <c r="B27" s="943" t="inlineStr">
         <is>
           <t>18/11/2022</t>
         </is>
       </c>
-      <c r="C26" s="941" t="inlineStr">
+      <c r="C27" s="946" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="D26" s="941" t="inlineStr">
+      <c r="D27" s="946" t="inlineStr">
         <is>
           <t>Confederation of European Paper Industries</t>
         </is>
       </c>
-      <c r="E26" s="941" t="inlineStr">
+      <c r="E27" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">VTC meeting on food packaging </t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="941" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B27" s="938" t="inlineStr">
+      <c r="B28" s="943" t="inlineStr">
         <is>
           <t>17/11/2022</t>
         </is>
       </c>
-      <c r="C27" s="941" t="inlineStr">
+      <c r="C28" s="946" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="D27" s="941" t="inlineStr">
+      <c r="D28" s="946" t="inlineStr">
         <is>
           <t>European Paper Packaging Alliance</t>
         </is>
       </c>
-      <c r="E27" s="941" t="inlineStr">
+      <c r="E28" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting on food packaging </t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="941" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B28" s="938" t="inlineStr">
+      <c r="B29" s="943" t="inlineStr">
         <is>
           <t>09/11/2022</t>
         </is>
       </c>
-      <c r="C28" s="941" t="inlineStr">
+      <c r="C29" s="946" t="inlineStr">
         <is>
           <t>On line</t>
         </is>
       </c>
-      <c r="D28" s="941" t="inlineStr">
+      <c r="D29" s="946" t="inlineStr">
         <is>
           <t>MEDICINES FOR EUROPE</t>
         </is>
       </c>
-      <c r="E28" s="941" t="inlineStr">
+      <c r="E29" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Exchange of views on the pharma reform</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="941" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B29" s="938" t="inlineStr">
+      <c r="B30" s="943" t="inlineStr">
         <is>
           <t>08/11/2022</t>
         </is>
       </c>
-      <c r="C29" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D29" s="941" t="inlineStr">
+      <c r="C30" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D30" s="946" t="inlineStr">
         <is>
           <t>Friends of the Earth Europe</t>
         </is>
       </c>
-      <c r="E29" s="941" t="inlineStr">
+      <c r="E30" s="946" t="inlineStr">
         <is>
           <t>Discussion on Antimicrobial Resistance (AMR)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="941" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B30" s="938" t="inlineStr">
+      <c r="B31" s="943" t="inlineStr">
         <is>
           <t>08/11/2022</t>
         </is>
       </c>
-      <c r="C30" s="941" t="inlineStr">
+      <c r="C31" s="946" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="D30" s="941" t="inlineStr">
+      <c r="D31" s="946" t="inlineStr">
         <is>
           <t>FoodDrinkEurope</t>
         </is>
       </c>
-      <c r="E30" s="941" t="inlineStr">
+      <c r="E31" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">VTC meeting on food packaging </t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="941" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B31" s="938" t="inlineStr">
+      <c r="B32" s="943" t="inlineStr">
         <is>
           <t>04/11/2022</t>
         </is>
       </c>
-      <c r="C31" s="941" t="inlineStr">
+      <c r="C32" s="946" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="D31" s="941" t="inlineStr">
+      <c r="D32" s="946" t="inlineStr">
         <is>
           <t>International Diabetes Federation European Region, European Diabetes Forum</t>
         </is>
       </c>
-      <c r="E31" s="941" t="inlineStr">
+      <c r="E32" s="946" t="inlineStr">
         <is>
           <t>VTC meeting on the Healthier Together - EU Non-Communicable Diseases initiative and on the priorities for the diabetes community</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="941" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="946" t="inlineStr">
         <is>
           <t>Daphne von Buxhoeveden</t>
         </is>
       </c>
-      <c r="B32" s="938" t="inlineStr">
+      <c r="B33" s="943" t="inlineStr">
         <is>
           <t>03/11/2022</t>
         </is>
       </c>
-      <c r="C32" s="941" t="inlineStr">
+      <c r="C33" s="946" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="D32" s="941" t="inlineStr">
+      <c r="D33" s="946" t="inlineStr">
         <is>
           <t>Moderna Inc.</t>
         </is>
       </c>
-      <c r="E32" s="941" t="inlineStr">
+      <c r="E33" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Videoconference with Moderna CEO on future of mRNA platform; ongoing cooperation on the management of the pandemic</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="941" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B33" s="938" t="inlineStr">
+      <c r="B34" s="943" t="inlineStr">
         <is>
           <t>26/10/2022</t>
         </is>
       </c>
-      <c r="C33" s="941" t="inlineStr">
+      <c r="C34" s="946" t="inlineStr">
         <is>
           <t>On line</t>
         </is>
       </c>
-      <c r="D33" s="941" t="inlineStr">
+      <c r="D34" s="946" t="inlineStr">
         <is>
           <t>Bureau Européen des Unions de Consommateurs</t>
         </is>
       </c>
-      <c r="E33" s="941" t="inlineStr">
+      <c r="E34" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Exchange of views on EU labelling rules and the pharmaceutical reform.
 </t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="941" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B34" s="938" t="inlineStr">
+      <c r="B35" s="943" t="inlineStr">
         <is>
           <t>25/10/2022</t>
         </is>
       </c>
-      <c r="C34" s="941" t="inlineStr">
+      <c r="C35" s="946" t="inlineStr">
         <is>
           <t>On line</t>
         </is>
       </c>
-      <c r="D34" s="941" t="inlineStr">
+      <c r="D35" s="946" t="inlineStr">
         <is>
           <t>EuropaBio</t>
         </is>
       </c>
-      <c r="E34" s="941" t="inlineStr">
+      <c r="E35" s="946" t="inlineStr">
         <is>
           <t>Exchange of views on the upcoming reform of the pharmaceutical legislation</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="941" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B35" s="938" t="inlineStr">
+      <c r="B36" s="943" t="inlineStr">
         <is>
           <t>13/10/2022</t>
         </is>
       </c>
-      <c r="C35" s="941" t="inlineStr">
+      <c r="C36" s="946" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="D35" s="941" t="inlineStr">
+      <c r="D36" s="946" t="inlineStr">
         <is>
           <t>SMEunited aisbl</t>
         </is>
       </c>
-      <c r="E35" s="941" t="inlineStr">
+      <c r="E36" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting on Food Waste and Food Labelling </t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="941" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B36" s="938" t="inlineStr">
+      <c r="B37" s="943" t="inlineStr">
         <is>
           <t>10/10/2022</t>
         </is>
       </c>
-      <c r="C36" s="941" t="inlineStr">
+      <c r="C37" s="946" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="D36" s="941" t="inlineStr">
+      <c r="D37" s="946" t="inlineStr">
         <is>
           <t>European Cancer Organisation, The European Institute for Innovation through Health Data, Suomen itsenäisyyden juhlarahasto, DIGITALEUROPE</t>
         </is>
       </c>
-      <c r="E36" s="941" t="inlineStr">
+      <c r="E37" s="946" t="inlineStr">
         <is>
           <t>Working group on European Health Data Space</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="941" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo, Daphne von Buxhoeveden</t>
         </is>
       </c>
-      <c r="B37" s="938" t="inlineStr">
+      <c r="B38" s="943" t="inlineStr">
         <is>
           <t>10/10/2022</t>
         </is>
       </c>
-      <c r="C37" s="941" t="inlineStr">
+      <c r="C38" s="946" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="D37" s="941" t="inlineStr">
+      <c r="D38" s="946" t="inlineStr">
         <is>
           <t>Health &amp; Environment Alliance</t>
         </is>
       </c>
-      <c r="E37" s="941" t="inlineStr">
+      <c r="E38" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting on health and environmental civil society air quality</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="941" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B38" s="938" t="inlineStr">
+      <c r="B39" s="943" t="inlineStr">
         <is>
           <t>27/09/2022</t>
         </is>
       </c>
-      <c r="C38" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D38" s="941" t="inlineStr">
+      <c r="C39" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D39" s="946" t="inlineStr">
         <is>
           <t>European farmers, European agri-cooperatives</t>
         </is>
       </c>
-      <c r="E38" s="941" t="inlineStr">
+      <c r="E39" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting: Revision of food labelling rules </t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="941" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Giorgios Rossides, Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B39" s="938" t="inlineStr">
+      <c r="B40" s="943" t="inlineStr">
         <is>
           <t>22/09/2022</t>
         </is>
       </c>
-      <c r="C39" s="941" t="inlineStr">
+      <c r="C40" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="D39" s="941" t="inlineStr">
+      <c r="D40" s="946" t="inlineStr">
         <is>
           <t>Standing Committee of European Doctors</t>
         </is>
       </c>
-      <c r="E39" s="941" t="inlineStr">
+      <c r="E40" s="946" t="inlineStr">
         <is>
           <t>Upcoming policy initiatives in the field of health, the European Health Data Space and revision of the pharmaceutical framework</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="941" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B40" s="938" t="inlineStr">
+      <c r="B41" s="943" t="inlineStr">
         <is>
           <t>21/09/2022</t>
         </is>
       </c>
-      <c r="C40" s="941" t="inlineStr">
+      <c r="C41" s="946" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="D40" s="941" t="inlineStr">
+      <c r="D41" s="946" t="inlineStr">
         <is>
           <t>The European Organisation for Packaging and the Environment</t>
         </is>
       </c>
-      <c r="E40" s="941" t="inlineStr">
+      <c r="E41" s="946" t="inlineStr">
         <is>
           <t>VTC meeting on food contact materials and the Packaging and Packaging Waste Directive</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="941" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="946" t="inlineStr">
         <is>
           <t>Ines Prainsack, Annukka Ojala</t>
         </is>
       </c>
-      <c r="B41" s="938" t="inlineStr">
+      <c r="B42" s="943" t="inlineStr">
         <is>
           <t>20/09/2022</t>
         </is>
       </c>
-      <c r="C41" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D41" s="941" t="inlineStr">
+      <c r="C42" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D42" s="946" t="inlineStr">
         <is>
           <t>WCS EU</t>
         </is>
       </c>
-      <c r="E41" s="941" t="inlineStr">
+      <c r="E42" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> One Health and Pandemic agreement</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="941" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="946" t="inlineStr">
         <is>
           <t>Daphne von Buxhoeveden, Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B42" s="938" t="inlineStr">
+      <c r="B43" s="943" t="inlineStr">
         <is>
           <t>20/09/2022</t>
         </is>
       </c>
-      <c r="C42" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D42" s="941" t="inlineStr">
+      <c r="C43" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D43" s="946" t="inlineStr">
         <is>
           <t>SUEZ Group</t>
         </is>
       </c>
-      <c r="E42" s="941" t="inlineStr">
+      <c r="E43" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting: Waste water surveillance</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="941" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B43" s="938" t="inlineStr">
+      <c r="B44" s="943" t="inlineStr">
         <is>
           <t>01/09/2022</t>
         </is>
       </c>
-      <c r="C43" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D43" s="941" t="inlineStr">
+      <c r="C44" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D44" s="946" t="inlineStr">
         <is>
           <t>Conseil Européen des Jeunes Agriculteurs</t>
         </is>
       </c>
-      <c r="E43" s="941" t="inlineStr">
+      <c r="E44" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting: sustainable food systems’ framework initiative (FSFS)</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="941" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B44" s="938" t="inlineStr">
+      <c r="B45" s="943" t="inlineStr">
         <is>
           <t>25/08/2022</t>
         </is>
       </c>
-      <c r="C44" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D44" s="941" t="inlineStr">
+      <c r="C45" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D45" s="946" t="inlineStr">
         <is>
           <t>WWF European Policy Programme</t>
         </is>
       </c>
-      <c r="E44" s="941" t="inlineStr">
+      <c r="E45" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting - Sustainable Food Systems and EAT4Change project.</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="941" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B45" s="938" t="inlineStr">
+      <c r="B46" s="943" t="inlineStr">
         <is>
           <t>12/07/2022</t>
         </is>
       </c>
-      <c r="C45" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D45" s="941" t="inlineStr">
+      <c r="C46" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D46" s="946" t="inlineStr">
         <is>
           <t>Rabobank</t>
         </is>
       </c>
-      <c r="E45" s="941" t="inlineStr">
+      <c r="E46" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
  Sustainable Food Systems</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="941" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B46" s="938" t="inlineStr">
+      <c r="B47" s="943" t="inlineStr">
         <is>
           <t>11/07/2022</t>
         </is>
       </c>
-      <c r="C46" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D46" s="941" t="inlineStr">
+      <c r="C47" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D47" s="946" t="inlineStr">
         <is>
           <t>World Resources Institute</t>
         </is>
       </c>
-      <c r="E46" s="941" t="inlineStr">
+      <c r="E47" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VTC Meeting - Sustainable Food Systems</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="941" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="946" t="inlineStr">
         <is>
           <t>Daphne von Buxhoeveden</t>
         </is>
       </c>
-      <c r="B47" s="938" t="inlineStr">
+      <c r="B48" s="943" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="C47" s="941" t="inlineStr">
+      <c r="C48" s="946" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="D47" s="941" t="inlineStr">
+      <c r="D48" s="946" t="inlineStr">
         <is>
           <t>Bill &amp; Melinda Gates Foundation</t>
         </is>
       </c>
-      <c r="E47" s="941" t="inlineStr">
+      <c r="E48" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting on the grand challenges annual meeting </t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="941" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B48" s="938" t="inlineStr">
+      <c r="B49" s="943" t="inlineStr">
         <is>
           <t>29/06/2022</t>
         </is>
       </c>
-      <c r="C48" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D48" s="941" t="inlineStr">
+      <c r="C49" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D49" s="946" t="inlineStr">
         <is>
           <t>BEAM Alliance</t>
         </is>
       </c>
-      <c r="E48" s="941" t="inlineStr">
+      <c r="E49" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting on Revision of the pharmaceutical legislation and Anti-microbial resistance.</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="941" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B49" s="938" t="inlineStr">
+      <c r="B50" s="943" t="inlineStr">
         <is>
           <t>28/06/2022</t>
         </is>
       </c>
-      <c r="C49" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D49" s="941" t="inlineStr">
+      <c r="C50" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D50" s="946" t="inlineStr">
         <is>
           <t>European Healthcare Distribution Association</t>
         </is>
       </c>
-      <c r="E49" s="941" t="inlineStr">
+      <c r="E50" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VTC meeting: Exchange of views on the upcoming pharmaceutical legislation</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="941" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B50" s="938" t="inlineStr">
+      <c r="B51" s="943" t="inlineStr">
         <is>
           <t>28/06/2022</t>
         </is>
       </c>
-      <c r="C50" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D50" s="941" t="inlineStr">
+      <c r="C51" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D51" s="946" t="inlineStr">
         <is>
           <t>Union Fédérale des Consommateurs - Que Choisir</t>
         </is>
       </c>
-      <c r="E50" s="941" t="inlineStr">
+      <c r="E51" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting  -  Exchange of views on nutrition labelling under Farm to Fork Strategy</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="941" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="946" t="inlineStr">
         <is>
           <t>Ines Prainsack, Roberto Reig Rodrigo, Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B51" s="938" t="inlineStr">
+      <c r="B52" s="943" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="C51" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D51" s="941" t="inlineStr">
+      <c r="C52" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D52" s="946" t="inlineStr">
         <is>
           <t>Euroseeds</t>
         </is>
       </c>
-      <c r="E51" s="941" t="inlineStr">
+      <c r="E52" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting on Plant reproductive material and NGTs.</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="941" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne, Daphne von Buxhoeveden, Ines Prainsack</t>
         </is>
       </c>
-      <c r="B52" s="938" t="inlineStr">
+      <c r="B53" s="943" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="C52" s="941" t="inlineStr">
+      <c r="C53" s="946" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="D52" s="941" t="inlineStr">
+      <c r="D53" s="946" t="inlineStr">
         <is>
           <t>PATH</t>
         </is>
       </c>
-      <c r="E52" s="941" t="inlineStr">
+      <c r="E53" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Meeting on global health</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="941" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Panayiotis Pourgourides</t>
         </is>
       </c>
-      <c r="B53" s="938" t="inlineStr">
+      <c r="B54" s="943" t="inlineStr">
         <is>
           <t>03/06/2022</t>
         </is>
       </c>
-      <c r="C53" s="941" t="inlineStr">
+      <c r="C54" s="946" t="inlineStr">
         <is>
           <t>Brussels, virtual meeting</t>
         </is>
       </c>
-      <c r="D53" s="941" t="inlineStr">
+      <c r="D54" s="946" t="inlineStr">
         <is>
           <t>The European Region of the International Lesbian, Gay, Bisexual, Trans and Intersex Association</t>
         </is>
       </c>
-      <c r="E53" s="941" t="inlineStr">
+      <c r="E54" s="946" t="inlineStr">
         <is>
           <t>Issues faced by trans and intersex people from Ukraine including lack of access to hormones.</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="941" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B54" s="938" t="inlineStr">
+      <c r="B55" s="943" t="inlineStr">
         <is>
           <t>01/06/2022</t>
         </is>
       </c>
-      <c r="C54" s="941" t="inlineStr">
+      <c r="C55" s="946" t="inlineStr">
         <is>
           <t>Bruxelles - Virtual</t>
         </is>
       </c>
-      <c r="D54" s="941" t="inlineStr">
+      <c r="D55" s="946" t="inlineStr">
         <is>
           <t>Bitkom e.V.</t>
         </is>
       </c>
-      <c r="E54" s="941" t="inlineStr">
+      <c r="E55" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting on European Health Data Space </t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="941" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B55" s="938" t="inlineStr">
+      <c r="B56" s="943" t="inlineStr">
         <is>
           <t>25/05/2022</t>
         </is>
       </c>
-      <c r="C55" s="941" t="inlineStr">
+      <c r="C56" s="946" t="inlineStr">
         <is>
           <t>Bruxelles - Virtual</t>
         </is>
       </c>
-      <c r="D55" s="941" t="inlineStr">
+      <c r="D56" s="946" t="inlineStr">
         <is>
           <t>European Patients' Forum (EPF)</t>
         </is>
       </c>
-      <c r="E55" s="941" t="inlineStr">
+      <c r="E56" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting - European Health Data Space – EPF Congress 2022 </t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="941" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B56" s="938" t="inlineStr">
+      <c r="B57" s="943" t="inlineStr">
         <is>
           <t>24/05/2022</t>
         </is>
       </c>
-      <c r="C56" s="941" t="inlineStr">
+      <c r="C57" s="946" t="inlineStr">
         <is>
           <t>Brussels - virtual meeting</t>
         </is>
       </c>
-      <c r="D56" s="941" t="inlineStr">
+      <c r="D57" s="946" t="inlineStr">
         <is>
           <t>Association of the European Self-Care Industry</t>
         </is>
       </c>
-      <c r="E56" s="941" t="inlineStr">
+      <c r="E57" s="946" t="inlineStr">
         <is>
           <t>Exchange of views on the upcoming reform of the pharmaceutical legislation</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="941" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B57" s="938" t="inlineStr">
+      <c r="B58" s="943" t="inlineStr">
         <is>
           <t>18/05/2022</t>
         </is>
       </c>
-      <c r="C57" s="941" t="inlineStr">
+      <c r="C58" s="946" t="inlineStr">
         <is>
           <t>Brussels, virtual</t>
         </is>
       </c>
-      <c r="D57" s="941" t="inlineStr">
+      <c r="D58" s="946" t="inlineStr">
         <is>
           <t>European Confederation of Pharmaceutical Entrepreneurs</t>
         </is>
       </c>
-      <c r="E57" s="941" t="inlineStr">
+      <c r="E58" s="946" t="inlineStr">
         <is>
           <t>Exchange of views on the upcoming reform of the pharmaceutical legislation</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="941" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Annukka Ojala</t>
         </is>
       </c>
-      <c r="B58" s="938" t="inlineStr">
+      <c r="B59" s="943" t="inlineStr">
         <is>
           <t>13/05/2022</t>
         </is>
       </c>
-      <c r="C58" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D58" s="941" t="inlineStr">
+      <c r="C59" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D59" s="946" t="inlineStr">
         <is>
           <t>Confederazione Nazionale Coldiretti</t>
         </is>
       </c>
-      <c r="E58" s="941" t="inlineStr">
+      <c r="E59" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VTC meeting - Food Labelling</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="941" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B59" s="938" t="inlineStr">
+      <c r="B60" s="943" t="inlineStr">
         <is>
           <t>12/05/2022</t>
         </is>
       </c>
-      <c r="C59" s="941" t="inlineStr">
+      <c r="C60" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">On-line meeting </t>
         </is>
       </c>
-      <c r="D59" s="941" t="inlineStr">
+      <c r="D60" s="946" t="inlineStr">
         <is>
           <t>MEDICINES FOR EUROPE</t>
         </is>
       </c>
-      <c r="E59" s="941" t="inlineStr">
+      <c r="E60" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Exchange of views on the upcoming pharmaceutical strategy.</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="941" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B60" s="938" t="inlineStr">
+      <c r="B61" s="943" t="inlineStr">
         <is>
           <t>11/05/2022</t>
         </is>
       </c>
-      <c r="C60" s="941" t="inlineStr">
+      <c r="C61" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">on-line meeting </t>
         </is>
       </c>
-      <c r="D60" s="941" t="inlineStr">
+      <c r="D61" s="946" t="inlineStr">
         <is>
           <t>European Federation of Pharmaceutical Industries and Associations</t>
         </is>
       </c>
-      <c r="E60" s="941" t="inlineStr">
+      <c r="E61" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Exchange of views on the upcoming pharmaceutical strategy. </t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="941" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B61" s="938" t="inlineStr">
+      <c r="B62" s="943" t="inlineStr">
         <is>
           <t>10/05/2022</t>
         </is>
       </c>
-      <c r="C61" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D61" s="941" t="inlineStr">
+      <c r="C62" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D62" s="946" t="inlineStr">
         <is>
           <t>The European Environment and Sustainable Development Advisory Councils Network</t>
         </is>
       </c>
-      <c r="E61" s="941" t="inlineStr">
+      <c r="E62" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting: Framework Legislation of Sustainable Food Systems</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="941" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B62" s="938" t="inlineStr">
+      <c r="B63" s="943" t="inlineStr">
         <is>
           <t>05/05/2022</t>
         </is>
       </c>
-      <c r="C62" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D62" s="941" t="inlineStr">
+      <c r="C63" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D63" s="946" t="inlineStr">
         <is>
           <t>Bureau Européen des Unions de Consommateurs</t>
         </is>
       </c>
-      <c r="E62" s="941" t="inlineStr">
+      <c r="E63" s="946" t="inlineStr">
         <is>
           <t>Exchange of views on the key priorities of the reform of the pharmaceutical strategy legislation and state of play on Food contact materials</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="941" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo, Annukka Ojala</t>
         </is>
       </c>
-      <c r="B63" s="938" t="inlineStr">
+      <c r="B64" s="943" t="inlineStr">
         <is>
           <t>04/05/2022</t>
         </is>
       </c>
-      <c r="C63" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D63" s="941" t="inlineStr">
+      <c r="C64" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D64" s="946" t="inlineStr">
         <is>
           <t>Global Sepsis Alliance</t>
         </is>
       </c>
-      <c r="E63" s="941" t="inlineStr">
+      <c r="E64" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sepsis</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="941" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B64" s="938" t="inlineStr">
+      <c r="B65" s="943" t="inlineStr">
         <is>
           <t>03/05/2022</t>
         </is>
       </c>
-      <c r="C64" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D64" s="941" t="inlineStr">
+      <c r="C65" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D65" s="946" t="inlineStr">
         <is>
           <t>Corporate Europe Observatory, Euro Coop - European Community of Consumer Co-operatives, Greenpeace European Unit, European Coordination Via Campesina, International Federation of Organic Agriculture Movements EU Regional Group, Slow Food, Friends of the Earth Europe</t>
         </is>
       </c>
-      <c r="E64" s="941" t="inlineStr">
+      <c r="E65" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> New Genomic Techinques </t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="941" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="946" t="inlineStr">
         <is>
           <t>Panayiotis Pourgourides, Daphne von Buxhoeveden</t>
         </is>
       </c>
-      <c r="B65" s="938" t="inlineStr">
+      <c r="B66" s="943" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="C65" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D65" s="941" t="inlineStr">
+      <c r="C66" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D66" s="946" t="inlineStr">
         <is>
           <t>European Business and Innovation Centre Network</t>
         </is>
       </c>
-      <c r="E65" s="941" t="inlineStr">
+      <c r="E66" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">VTC Meeting with focus on their ‘ CHERRIES’ project  </t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="941" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B66" s="938" t="inlineStr">
+      <c r="B67" s="943" t="inlineStr">
         <is>
           <t>06/04/2022</t>
         </is>
       </c>
-      <c r="C66" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D66" s="941" t="inlineStr">
+      <c r="C67" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D67" s="946" t="inlineStr">
         <is>
           <t>FoodDrinkEurope</t>
         </is>
       </c>
-      <c r="E66" s="941" t="inlineStr">
+      <c r="E67" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC Meeting:  Food Security and EU Code of Conduct</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="941" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides, Ines Prainsack</t>
         </is>
       </c>
-      <c r="B67" s="938" t="inlineStr">
+      <c r="B68" s="943" t="inlineStr">
         <is>
           <t>24/03/2022</t>
         </is>
       </c>
-      <c r="C67" s="941" t="inlineStr">
+      <c r="C68" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="D67" s="941" t="inlineStr">
+      <c r="D68" s="946" t="inlineStr">
         <is>
           <t>European Health Forum Gastein</t>
         </is>
       </c>
-      <c r="E67" s="941" t="inlineStr">
+      <c r="E68" s="946" t="inlineStr">
         <is>
           <t>Exchange with Dr. Clemens Auer on the upcoming European Health Forum Gastein as well as the key pillars of the European Health Union</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="941" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="946" t="inlineStr">
         <is>
           <t>Panayiotis Pourgourides, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B68" s="938" t="inlineStr">
+      <c r="B69" s="943" t="inlineStr">
         <is>
           <t>23/03/2022</t>
         </is>
       </c>
-      <c r="C68" s="941" t="inlineStr">
+      <c r="C69" s="946" t="inlineStr">
         <is>
           <t>Brussels, virtual</t>
         </is>
       </c>
-      <c r="D68" s="941" t="inlineStr">
+      <c r="D69" s="946" t="inlineStr">
         <is>
           <t>European Public Health Association</t>
         </is>
       </c>
-      <c r="E68" s="941" t="inlineStr">
+      <c r="E69" s="946" t="inlineStr">
         <is>
           <t>Exchange of views on food labelling under Farm to Fork and Europe’s Beating cancer Plan.</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="941" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B69" s="938" t="inlineStr">
+      <c r="B70" s="943" t="inlineStr">
         <is>
           <t>17/03/2022</t>
         </is>
       </c>
-      <c r="C69" s="941" t="inlineStr">
+      <c r="C70" s="946" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="D69" s="941" t="inlineStr">
+      <c r="D70" s="946" t="inlineStr">
         <is>
           <t>Plasma Protein Therapeutics Association Europe, international Association without lucrative purpose</t>
         </is>
       </c>
-      <c r="E69" s="941" t="inlineStr">
+      <c r="E70" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting on Blood, Tissues and Cells legislation and availability of Plasma-Derived Medicinal Products </t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="941" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B70" s="938" t="inlineStr">
+      <c r="B71" s="943" t="inlineStr">
         <is>
           <t>16/03/2022</t>
         </is>
       </c>
-      <c r="C70" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D70" s="941" t="inlineStr">
+      <c r="C71" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D71" s="946" t="inlineStr">
         <is>
           <t>Arla Foods amba</t>
         </is>
       </c>
-      <c r="E70" s="941" t="inlineStr">
+      <c r="E71" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sustainable Food Systems</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="941" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="946" t="inlineStr">
         <is>
           <t>Tove Ernst</t>
         </is>
       </c>
-      <c r="B71" s="938" t="inlineStr">
+      <c r="B72" s="943" t="inlineStr">
         <is>
           <t>11/03/2022</t>
         </is>
       </c>
-      <c r="C71" s="941" t="inlineStr">
+      <c r="C72" s="946" t="inlineStr">
         <is>
           <t>Brussels, virtual</t>
         </is>
       </c>
-      <c r="D71" s="941" t="inlineStr">
+      <c r="D72" s="946" t="inlineStr">
         <is>
           <t>European Organisation for Research and Treatment of Cancer</t>
         </is>
       </c>
-      <c r="E71" s="941" t="inlineStr">
+      <c r="E72" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion on Europe's Beating Cancer Plan and breast cancer </t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="941" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B72" s="938" t="inlineStr">
+      <c r="B73" s="943" t="inlineStr">
         <is>
           <t>09/03/2022</t>
         </is>
       </c>
-      <c r="C72" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D72" s="941" t="inlineStr">
+      <c r="C73" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D73" s="946" t="inlineStr">
         <is>
           <t>Pesticide Action Network Europe, GLOBAL 2000, Friends of the Earth Austria, ClientEarth AISBL</t>
         </is>
       </c>
-      <c r="E72" s="941" t="inlineStr">
+      <c r="E73" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting: Revision of SUD proposal and pesticide indicators.</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="941" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides, Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B73" s="938" t="inlineStr">
+      <c r="B74" s="943" t="inlineStr">
         <is>
           <t>09/03/2022</t>
         </is>
       </c>
-      <c r="C73" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D73" s="941" t="inlineStr">
+      <c r="C74" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D74" s="946" t="inlineStr">
         <is>
           <t>Stichting BirdLife Europe, European Environmental Bureau, CEE Bankwatch Network, Health &amp; Environment Alliance, Friends of the Earth Europe</t>
         </is>
       </c>
-      <c r="E73" s="941" t="inlineStr">
+      <c r="E74" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting: Revision of the SUD Proposal</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="941" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="946" t="inlineStr">
         <is>
           <t>Tove Ernst</t>
         </is>
       </c>
-      <c r="B74" s="938" t="inlineStr">
+      <c r="B75" s="943" t="inlineStr">
         <is>
           <t>24/02/2022</t>
         </is>
       </c>
-      <c r="C74" s="941" t="inlineStr">
+      <c r="C75" s="946" t="inlineStr">
         <is>
           <t>Brussels, virtual</t>
         </is>
       </c>
-      <c r="D74" s="941" t="inlineStr">
+      <c r="D75" s="946" t="inlineStr">
         <is>
           <t>Association Internationale de la Mutualité</t>
         </is>
       </c>
-      <c r="E74" s="941" t="inlineStr">
+      <c r="E75" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion on Europe's Beating Cancer Plan </t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="941" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B75" s="938" t="inlineStr">
+      <c r="B76" s="943" t="inlineStr">
         <is>
           <t>21/02/2022</t>
         </is>
       </c>
-      <c r="C75" s="941" t="inlineStr">
+      <c r="C76" s="946" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="D75" s="941" t="inlineStr">
+      <c r="D76" s="946" t="inlineStr">
         <is>
           <t>Association Internationale de la Mutualité</t>
         </is>
       </c>
-      <c r="E75" s="941" t="inlineStr">
+      <c r="E76" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting on European Health Data Space </t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="941" t="inlineStr">
+    <row r="77">
+      <c r="A77" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B76" s="938" t="inlineStr">
+      <c r="B77" s="943" t="inlineStr">
         <is>
           <t>10/02/2022</t>
         </is>
       </c>
-      <c r="C76" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D76" s="941" t="inlineStr">
+      <c r="C77" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D77" s="946" t="inlineStr">
         <is>
           <t>European Environmental Bureau</t>
         </is>
       </c>
-      <c r="E76" s="941" t="inlineStr">
+      <c r="E77" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VTC Meeting on the proposal of the revision of the Sustainable use of Pesticides directive. </t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="941" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B77" s="938" t="inlineStr">
+      <c r="B78" s="943" t="inlineStr">
         <is>
           <t>27/01/2022</t>
         </is>
       </c>
-      <c r="C77" s="941" t="inlineStr">
+      <c r="C78" s="946" t="inlineStr">
         <is>
           <t>Brussels, virtual</t>
         </is>
       </c>
-      <c r="D77" s="941" t="inlineStr">
+      <c r="D78" s="946" t="inlineStr">
         <is>
           <t>Alliance for Regenerative Medicine</t>
         </is>
       </c>
-      <c r="E77" s="941" t="inlineStr">
+      <c r="E78" s="946" t="inlineStr">
         <is>
           <t>Exchanges of views on policy priorities of the Alliance for Regenerative Medicine in Europe: the Pharmaceutical Strategy and the EU’s Beating Cancer Plan</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="941" t="inlineStr">
+    <row r="79">
+      <c r="A79" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B78" s="938" t="inlineStr">
+      <c r="B79" s="943" t="inlineStr">
         <is>
           <t>21/01/2022</t>
         </is>
       </c>
-      <c r="C78" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D78" s="941" t="inlineStr">
+      <c r="C79" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D79" s="946" t="inlineStr">
         <is>
           <t>Pesticide Action Network Europe, ClientEarth AISBL</t>
         </is>
       </c>
-      <c r="E78" s="941" t="inlineStr">
+      <c r="E79" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VTC Meeting:  SAIO and Pesticides</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="941" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo, Annukka Ojala</t>
         </is>
       </c>
-      <c r="B79" s="938" t="inlineStr">
+      <c r="B80" s="943" t="inlineStr">
         <is>
           <t>13/01/2022</t>
         </is>
       </c>
-      <c r="C79" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D79" s="941" t="inlineStr">
+      <c r="C80" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D80" s="946" t="inlineStr">
         <is>
           <t>CropLife Europe</t>
         </is>
       </c>
-      <c r="E79" s="941" t="inlineStr">
+      <c r="E80" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VTC Meeting: Economic study on the impact of the 2030 Green Deal targets for crop production</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="941" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B80" s="938" t="inlineStr">
+      <c r="B81" s="943" t="inlineStr">
         <is>
           <t>15/12/2021</t>
         </is>
       </c>
-      <c r="C80" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D80" s="941" t="inlineStr">
+      <c r="C81" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D81" s="946" t="inlineStr">
         <is>
           <t>International Federation of Organic Agriculture Movements EU Regional Group</t>
         </is>
       </c>
-      <c r="E80" s="941" t="inlineStr">
+      <c r="E81" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting: sustainability labelling, in the context of the Farm to Fork strategy</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="941" t="inlineStr">
+    <row r="82">
+      <c r="A82" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B81" s="938" t="inlineStr">
+      <c r="B82" s="943" t="inlineStr">
         <is>
           <t>10/12/2021</t>
         </is>
       </c>
-      <c r="C81" s="941" t="inlineStr">
+      <c r="C82" s="946" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="D81" s="941" t="inlineStr">
+      <c r="D82" s="946" t="inlineStr">
         <is>
           <t>Zero Waste Europe, European Environmental Bureau, ClientEarth AISBL</t>
         </is>
       </c>
-      <c r="E81" s="941" t="inlineStr">
+      <c r="E82" s="946" t="inlineStr">
         <is>
           <t>VTC meeting on Circular economy and non-toxic plastics</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="941" t="inlineStr">
+    <row r="83">
+      <c r="A83" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B82" s="938" t="inlineStr">
+      <c r="B83" s="943" t="inlineStr">
         <is>
           <t>08/12/2021</t>
         </is>
       </c>
-      <c r="C82" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D82" s="941" t="inlineStr">
+      <c r="C83" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D83" s="946" t="inlineStr">
         <is>
           <t>International Biocontrol Manufacturers' Association</t>
         </is>
       </c>
-      <c r="E82" s="941" t="inlineStr">
+      <c r="E83" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting: Revision of the Sustainable Use of pesticides Directive and biocontrols</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="941" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala, Roberto Reig Rodrigo, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B83" s="938" t="inlineStr">
+      <c r="B84" s="943" t="inlineStr">
         <is>
           <t>02/12/2021</t>
         </is>
       </c>
-      <c r="C83" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D83" s="941" t="inlineStr">
+      <c r="C84" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D84" s="946" t="inlineStr">
         <is>
           <t>European Public Health Alliance</t>
         </is>
       </c>
-      <c r="E83" s="941" t="inlineStr">
+      <c r="E84" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VTC Meeting: Sustainable food system framework initiative</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="941" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B84" s="938" t="inlineStr">
+      <c r="B85" s="943" t="inlineStr">
         <is>
           <t>25/11/2021</t>
         </is>
       </c>
-      <c r="C84" s="941" t="inlineStr">
+      <c r="C85" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Webex </t>
         </is>
       </c>
-      <c r="D84" s="941" t="inlineStr">
+      <c r="D85" s="946" t="inlineStr">
         <is>
           <t>European Public Health Alliance, European Patients' Forum (EPF), EUROPEAN ORGANISATION FOR RARE DISEASES, Alzheimer Europe</t>
         </is>
       </c>
-      <c r="E84" s="941" t="inlineStr">
+      <c r="E85" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Follow up to Cssr Kyriakides’ meeting with CSOs on 25/10/2021 on civil society funding through EU4Health  </t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="941" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B85" s="938" t="inlineStr">
+      <c r="B86" s="943" t="inlineStr">
         <is>
           <t>24/11/2021</t>
         </is>
       </c>
-      <c r="C85" s="941" t="inlineStr">
+      <c r="C86" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Webex </t>
         </is>
       </c>
-      <c r="D85" s="941" t="inlineStr">
+      <c r="D86" s="946" t="inlineStr">
         <is>
           <t>American Chamber of Commerce to the European Union</t>
         </is>
       </c>
-      <c r="E85" s="941" t="inlineStr">
+      <c r="E86" s="946" t="inlineStr">
         <is>
           <t>Courtesy meeting and an exchange of views on transatlantic relations and cooperation on key initiatives in the health area.</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="941" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B86" s="938" t="inlineStr">
+      <c r="B87" s="943" t="inlineStr">
         <is>
           <t>27/10/2021</t>
         </is>
       </c>
-      <c r="C86" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D86" s="941" t="inlineStr">
+      <c r="C87" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D87" s="946" t="inlineStr">
         <is>
           <t>FoodDrinkEurope</t>
         </is>
       </c>
-      <c r="E86" s="941" t="inlineStr">
+      <c r="E87" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting : Origin Labelling in the context of the Farm to Fork Strategy</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="941" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B87" s="938" t="inlineStr">
+      <c r="B88" s="943" t="inlineStr">
         <is>
           <t>26/10/2021</t>
         </is>
       </c>
-      <c r="C87" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D87" s="941" t="inlineStr">
+      <c r="C88" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D88" s="946" t="inlineStr">
         <is>
           <t>MEDICINES FOR EUROPE</t>
         </is>
       </c>
-      <c r="E87" s="941" t="inlineStr">
+      <c r="E88" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Exchange of views on the upcoming revision of the pharmaceutical legislation and the Health Union </t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="941" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo, Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B88" s="938" t="inlineStr">
+      <c r="B89" s="943" t="inlineStr">
         <is>
           <t>18/10/2021</t>
         </is>
       </c>
-      <c r="C88" s="941" t="inlineStr">
+      <c r="C89" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Phone call </t>
         </is>
       </c>
-      <c r="D88" s="941" t="inlineStr">
+      <c r="D89" s="946" t="inlineStr">
         <is>
           <t>Pfizer Inc.</t>
         </is>
       </c>
-      <c r="E88" s="941" t="inlineStr">
+      <c r="E89" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Call with Pfizer’s Regional President for Vaccines, Mr. Sinan Atlig, to discuss the implementation of COVID-19 vaccines Advance Purchase Agreement </t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="941" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="946" t="inlineStr">
         <is>
           <t>Panayiotis Pourgourides</t>
         </is>
       </c>
-      <c r="B89" s="938" t="inlineStr">
+      <c r="B90" s="943" t="inlineStr">
         <is>
           <t>14/10/2021</t>
         </is>
       </c>
-      <c r="C89" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D89" s="941" t="inlineStr">
+      <c r="C90" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D90" s="946" t="inlineStr">
         <is>
           <t>Cooperl</t>
         </is>
       </c>
-      <c r="E89" s="941" t="inlineStr">
+      <c r="E90" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting: Discussion on Sustainable Food Systems</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="941" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="946" t="inlineStr">
         <is>
           <t>Ines Prainsack</t>
         </is>
       </c>
-      <c r="B90" s="938" t="inlineStr">
+      <c r="B91" s="943" t="inlineStr">
         <is>
           <t>05/10/2021</t>
         </is>
       </c>
-      <c r="C90" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D90" s="941" t="inlineStr">
+      <c r="C91" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D91" s="946" t="inlineStr">
         <is>
           <t>Wellcome Trust</t>
         </is>
       </c>
-      <c r="E90" s="941" t="inlineStr">
+      <c r="E91" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting on pandemic treaty, vaccine donations and cooperation at the G20.</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="941" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo, Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B91" s="938" t="inlineStr">
+      <c r="B92" s="943" t="inlineStr">
         <is>
           <t>29/09/2021</t>
         </is>
       </c>
-      <c r="C91" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D91" s="941" t="inlineStr">
+      <c r="C92" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D92" s="946" t="inlineStr">
         <is>
           <t>International Federation of Organic Agriculture Movements EU Regional Group</t>
         </is>
       </c>
-      <c r="E91" s="941" t="inlineStr">
+      <c r="E92" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting: New Genomic Techniques</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="941" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B92" s="938" t="inlineStr">
+      <c r="B93" s="943" t="inlineStr">
         <is>
           <t>28/09/2021</t>
         </is>
       </c>
-      <c r="C92" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D92" s="941" t="inlineStr">
+      <c r="C93" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D93" s="946" t="inlineStr">
         <is>
           <t>The Good Food Institute Europe (Belgium)</t>
         </is>
       </c>
-      <c r="E92" s="941" t="inlineStr">
+      <c r="E93" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VTC Meeting - Exchange of views on how to make our food system more sustainable in line with the Farm to Fork ambition</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="941" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne, Annukka Ojala</t>
         </is>
       </c>
-      <c r="B93" s="938" t="inlineStr">
+      <c r="B94" s="943" t="inlineStr">
         <is>
           <t>27/09/2021</t>
         </is>
       </c>
-      <c r="C93" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D93" s="941" t="inlineStr">
+      <c r="C94" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D94" s="946" t="inlineStr">
         <is>
           <t>Suomen itsenäisyyden juhlarahasto</t>
         </is>
       </c>
-      <c r="E93" s="941" t="inlineStr">
+      <c r="E94" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting - European Health Data Space</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="941" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B94" s="938" t="inlineStr">
+      <c r="B95" s="943" t="inlineStr">
         <is>
           <t>22/09/2021</t>
         </is>
       </c>
-      <c r="C94" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D94" s="941" t="inlineStr">
+      <c r="C95" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D95" s="946" t="inlineStr">
         <is>
           <t>Scientists for Future</t>
         </is>
       </c>
-      <c r="E94" s="941" t="inlineStr">
+      <c r="E95" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting - Common Agricultural Policy</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="941" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B95" s="938" t="inlineStr">
+      <c r="B96" s="943" t="inlineStr">
         <is>
           <t>21/09/2021</t>
         </is>
       </c>
-      <c r="C95" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D95" s="941" t="inlineStr">
+      <c r="C96" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D96" s="946" t="inlineStr">
         <is>
           <t>World Resources Institute</t>
         </is>
       </c>
-      <c r="E95" s="941" t="inlineStr">
+      <c r="E96" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">VTC-meeting on Champions 12.3. Coalition on progress toward achieving SDG Target 12.3 on food waste   </t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="941" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B96" s="938" t="inlineStr">
+      <c r="B97" s="943" t="inlineStr">
         <is>
           <t>20/09/2021</t>
         </is>
       </c>
-      <c r="C96" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D96" s="941" t="inlineStr">
+      <c r="C97" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D97" s="946" t="inlineStr">
         <is>
           <t>Paulig Group</t>
         </is>
       </c>
-      <c r="E96" s="941" t="inlineStr">
+      <c r="E97" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting on Sustainable Food Systems</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="941" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B97" s="938" t="inlineStr">
+      <c r="B98" s="943" t="inlineStr">
         <is>
           <t>15/09/2021</t>
         </is>
       </c>
-      <c r="C97" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D97" s="941" t="inlineStr">
+      <c r="C98" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D98" s="946" t="inlineStr">
         <is>
           <t>Testbiotech</t>
         </is>
       </c>
-      <c r="E97" s="941" t="inlineStr">
+      <c r="E98" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VTC meeting on New Genomic Techniques</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="941" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B98" s="938" t="inlineStr">
+      <c r="B99" s="943" t="inlineStr">
         <is>
           <t>08/09/2021</t>
         </is>
       </c>
-      <c r="C98" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D98" s="941" t="inlineStr">
+      <c r="C99" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D99" s="946" t="inlineStr">
         <is>
           <t>Stichting IMAGINE Foundation</t>
         </is>
       </c>
-      <c r="E98" s="941" t="inlineStr">
+      <c r="E99" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sustainable Food Systems  </t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="941" t="inlineStr">
+    <row r="100">
+      <c r="A100" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B99" s="938" t="inlineStr">
+      <c r="B100" s="943" t="inlineStr">
         <is>
           <t>01/09/2021</t>
         </is>
       </c>
-      <c r="C99" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D99" s="941" t="inlineStr">
+      <c r="C100" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D100" s="946" t="inlineStr">
         <is>
           <t>Bundesärztekammer</t>
         </is>
       </c>
-      <c r="E99" s="941" t="inlineStr">
+      <c r="E100" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting on European Health Union and the future of health policy in the EU</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="941" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B100" s="938" t="inlineStr">
+      <c r="B101" s="943" t="inlineStr">
         <is>
           <t>13/08/2021</t>
         </is>
       </c>
-      <c r="C100" s="941" t="inlineStr">
+      <c r="C101" s="946" t="inlineStr">
         <is>
           <t>VTC - Teams</t>
         </is>
       </c>
-      <c r="D100" s="941" t="inlineStr">
+      <c r="D101" s="946" t="inlineStr">
         <is>
           <t>Bundesärztekammer</t>
         </is>
       </c>
-      <c r="E100" s="941" t="inlineStr">
+      <c r="E101" s="946" t="inlineStr">
         <is>
           <t>Preparatory conversation for a discussion on the role of the European Union in future health policy</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="941" t="inlineStr">
+    <row r="102">
+      <c r="A102" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala, Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B101" s="938" t="inlineStr">
+      <c r="B102" s="943" t="inlineStr">
         <is>
           <t>22/07/2021</t>
         </is>
       </c>
-      <c r="C101" s="941" t="inlineStr">
+      <c r="C102" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="D101" s="941" t="inlineStr">
+      <c r="D102" s="946" t="inlineStr">
         <is>
           <t>WWF European Policy Programme, European Public Health Alliance, European Environmental Bureau, ClientEarth AISBL</t>
         </is>
       </c>
-      <c r="E101" s="941" t="inlineStr">
+      <c r="E102" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting on Framework legislation for sustainable food systems</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="941" t="inlineStr">
+    <row r="103">
+      <c r="A103" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B102" s="938" t="inlineStr">
+      <c r="B103" s="943" t="inlineStr">
         <is>
           <t>13/07/2021</t>
         </is>
       </c>
-      <c r="C102" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D102" s="941" t="inlineStr">
+      <c r="C103" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D103" s="946" t="inlineStr">
         <is>
           <t>European Coordination Via Campesina</t>
         </is>
       </c>
-      <c r="E102" s="941" t="inlineStr">
+      <c r="E103" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC meeting - Farm to Fork Strategy  </t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="941" t="inlineStr">
+    <row r="104">
+      <c r="A104" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo, Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B103" s="938" t="inlineStr">
+      <c r="B104" s="943" t="inlineStr">
         <is>
           <t>01/07/2021</t>
         </is>
       </c>
-      <c r="C103" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D103" s="941" t="inlineStr">
+      <c r="C104" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D104" s="946" t="inlineStr">
         <is>
           <t>European Sustainable Agriculture through Genome Editing</t>
         </is>
       </c>
-      <c r="E103" s="941" t="inlineStr">
+      <c r="E104" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VC Meeting - New Genomic Techniques</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="941" t="inlineStr">
+    <row r="105">
+      <c r="A105" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B104" s="938" t="inlineStr">
+      <c r="B105" s="943" t="inlineStr">
         <is>
           <t>17/06/2021</t>
         </is>
       </c>
-      <c r="C104" s="941" t="inlineStr">
+      <c r="C105" s="946" t="inlineStr">
         <is>
           <t>Brussels, virtual</t>
         </is>
       </c>
-      <c r="D104" s="941" t="inlineStr">
+      <c r="D105" s="946" t="inlineStr">
         <is>
           <t>EUROPEAN ORGANISATION FOR RARE DISEASES</t>
         </is>
       </c>
-      <c r="E104" s="941" t="inlineStr">
+      <c r="E105" s="946" t="inlineStr">
         <is>
           <t>Exchange of views on rare diseases in the context of the pharmaceutical strategy for Europe and the presentation of EURORDIS Recommendations of the Foresight Study on rare diseases policy</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="941" t="inlineStr">
+    <row r="106">
+      <c r="A106" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B105" s="938" t="inlineStr">
+      <c r="B106" s="943" t="inlineStr">
         <is>
           <t>08/06/2021</t>
         </is>
       </c>
-      <c r="C105" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D105" s="941" t="inlineStr">
+      <c r="C106" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D106" s="946" t="inlineStr">
         <is>
           <t>EuroCommerce</t>
         </is>
       </c>
-      <c r="E105" s="941" t="inlineStr">
+      <c r="E106" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VTC Meeting on Code of Conduct on responsible food business and market practices</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="941" t="inlineStr">
+    <row r="107">
+      <c r="A107" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B106" s="938" t="inlineStr">
+      <c r="B107" s="943" t="inlineStr">
         <is>
           <t>08/06/2021</t>
         </is>
       </c>
-      <c r="C106" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D106" s="941" t="inlineStr">
+      <c r="C107" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D107" s="946" t="inlineStr">
         <is>
           <t>Danone, Nestlé S.A., Unilever</t>
         </is>
       </c>
-      <c r="E106" s="941" t="inlineStr">
+      <c r="E107" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting - Code of Conduct on responsible food business and market practices</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="941" t="inlineStr">
+    <row r="108">
+      <c r="A108" s="946" t="inlineStr">
         <is>
           <t>Ines Prainsack</t>
         </is>
       </c>
-      <c r="B107" s="938" t="inlineStr">
+      <c r="B108" s="943" t="inlineStr">
         <is>
           <t>07/06/2021</t>
         </is>
       </c>
-      <c r="C107" s="941" t="inlineStr">
+      <c r="C108" s="946" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="D107" s="941" t="inlineStr">
+      <c r="D108" s="946" t="inlineStr">
         <is>
           <t>Wellcome Trust</t>
         </is>
       </c>
-      <c r="E107" s="941" t="inlineStr">
+      <c r="E108" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Exchange on ACT-A, COVAX and vaccine sharing.
 </t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="941" t="inlineStr">
+    <row r="109">
+      <c r="A109" s="946" t="inlineStr">
         <is>
           <t>Panayiotis Pourgourides, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B108" s="938" t="inlineStr">
+      <c r="B109" s="943" t="inlineStr">
         <is>
           <t>27/05/2021</t>
         </is>
       </c>
-      <c r="C108" s="941" t="inlineStr">
+      <c r="C109" s="946" t="inlineStr">
         <is>
           <t>Brussels, virtual meeting</t>
         </is>
       </c>
-      <c r="D108" s="941" t="inlineStr">
+      <c r="D109" s="946" t="inlineStr">
         <is>
           <t>BEL</t>
         </is>
       </c>
-      <c r="E108" s="941" t="inlineStr">
+      <c r="E109" s="946" t="inlineStr">
         <is>
           <t>Exchange of views on the Farm to Fork Strategy, in particular the sustainability of the supply chain and the front of pack nutrition labelling</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="941" t="inlineStr">
+    <row r="110">
+      <c r="A110" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B109" s="938" t="inlineStr">
+      <c r="B110" s="943" t="inlineStr">
         <is>
           <t>11/05/2021</t>
         </is>
       </c>
-      <c r="C109" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D109" s="941" t="inlineStr">
+      <c r="C110" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D110" s="946" t="inlineStr">
         <is>
           <t>Corporate Europe Observatory, Greenpeace European Unit, European Coordination Via Campesina, International Federation of Organic Agriculture Movements EU Regional Group, Slow Food, Friends of the Earth Europe</t>
         </is>
       </c>
-      <c r="E109" s="941" t="inlineStr">
+      <c r="E110" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting - New Genomic Techniques and Gene drives</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="941" t="inlineStr">
+    <row r="111">
+      <c r="A111" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B110" s="938" t="inlineStr">
+      <c r="B111" s="943" t="inlineStr">
         <is>
           <t>05/05/2021</t>
         </is>
       </c>
-      <c r="C110" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D110" s="941" t="inlineStr">
+      <c r="C111" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D111" s="946" t="inlineStr">
         <is>
           <t>European Milk Board</t>
         </is>
       </c>
-      <c r="E110" s="941" t="inlineStr">
+      <c r="E111" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VTC Meeting - Sustainable Food Systems</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="941" t="inlineStr">
+    <row r="112">
+      <c r="A112" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Annukka Ojala</t>
         </is>
       </c>
-      <c r="B111" s="938" t="inlineStr">
+      <c r="B112" s="943" t="inlineStr">
         <is>
           <t>27/04/2021</t>
         </is>
       </c>
-      <c r="C111" s="941" t="inlineStr">
+      <c r="C112" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="D111" s="941" t="inlineStr">
+      <c r="D112" s="946" t="inlineStr">
         <is>
           <t>European Dairy Association aisbl</t>
         </is>
       </c>
-      <c r="E111" s="941" t="inlineStr">
+      <c r="E112" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting  on Farm to Fork Strategy and labelling initiatives</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="941" t="inlineStr">
+    <row r="113">
+      <c r="A113" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B112" s="938" t="inlineStr">
+      <c r="B113" s="943" t="inlineStr">
         <is>
           <t>21/04/2021</t>
         </is>
       </c>
-      <c r="C112" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D112" s="941" t="inlineStr">
+      <c r="C113" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D113" s="946" t="inlineStr">
         <is>
           <t>The Good Food Institute Europe (Belgium)</t>
         </is>
       </c>
-      <c r="E112" s="941" t="inlineStr">
+      <c r="E113" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting - Alternative Proteins in F2F</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="941" t="inlineStr">
+    <row r="114">
+      <c r="A114" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Annukka Ojala</t>
         </is>
       </c>
-      <c r="B113" s="938" t="inlineStr">
+      <c r="B114" s="943" t="inlineStr">
         <is>
           <t>21/04/2021</t>
         </is>
       </c>
-      <c r="C113" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D113" s="941" t="inlineStr">
+      <c r="C114" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D114" s="946" t="inlineStr">
         <is>
           <t>Arla Foods amba</t>
         </is>
       </c>
-      <c r="E113" s="941" t="inlineStr">
+      <c r="E114" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VC Meeting - Sustainable Food Systems </t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="941" t="inlineStr">
+    <row r="115">
+      <c r="A115" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides, Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B114" s="938" t="inlineStr">
+      <c r="B115" s="943" t="inlineStr">
         <is>
           <t>22/03/2021</t>
         </is>
       </c>
-      <c r="C114" s="941" t="inlineStr">
+      <c r="C115" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Skype meeting </t>
         </is>
       </c>
-      <c r="D114" s="941" t="inlineStr">
+      <c r="D115" s="946" t="inlineStr">
         <is>
           <t>Airports Council International - European Region</t>
         </is>
       </c>
-      <c r="E114" s="941" t="inlineStr">
+      <c r="E115" s="946" t="inlineStr">
         <is>
           <t>Discussion about a safe re-opening in light of the trajectory of the pandemic.</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="941" t="inlineStr">
+    <row r="116">
+      <c r="A116" s="946" t="inlineStr">
         <is>
           <t>Ines Prainsack</t>
         </is>
       </c>
-      <c r="B115" s="938" t="inlineStr">
+      <c r="B116" s="943" t="inlineStr">
         <is>
           <t>12/03/2021</t>
         </is>
       </c>
-      <c r="C115" s="941" t="inlineStr">
+      <c r="C116" s="946" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="D115" s="941" t="inlineStr">
+      <c r="D116" s="946" t="inlineStr">
         <is>
           <t>GLOBAL HEALTH ADVOCATES</t>
         </is>
       </c>
-      <c r="E115" s="941" t="inlineStr">
+      <c r="E116" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Exchange on EU global solidarity, COVAX and EU pledges</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="941" t="inlineStr">
+    <row r="117">
+      <c r="A117" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B116" s="938" t="inlineStr">
+      <c r="B117" s="943" t="inlineStr">
         <is>
           <t>08/03/2021</t>
         </is>
       </c>
-      <c r="C116" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D116" s="941" t="inlineStr">
+      <c r="C117" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D117" s="946" t="inlineStr">
         <is>
           <t>SOSTE Suomen sosiaali ja terveys ry</t>
         </is>
       </c>
-      <c r="E116" s="941" t="inlineStr">
+      <c r="E117" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC:  Webinar on the European Health Union - speech and exchange of views </t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="941" t="inlineStr">
+    <row r="118">
+      <c r="A118" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides, Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B117" s="938" t="inlineStr">
+      <c r="B118" s="943" t="inlineStr">
         <is>
           <t>02/03/2021</t>
         </is>
       </c>
-      <c r="C117" s="941" t="inlineStr">
+      <c r="C118" s="946" t="inlineStr">
         <is>
           <t>Virtual Meeting</t>
         </is>
       </c>
-      <c r="D117" s="941" t="inlineStr">
+      <c r="D118" s="946" t="inlineStr">
         <is>
           <t>The European House - Ambrosetti</t>
         </is>
       </c>
-      <c r="E117" s="941" t="inlineStr">
+      <c r="E118" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">The EU’s healthcare policy in the post-pandemic landscape </t>
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="941" t="inlineStr">
+    <row r="119">
+      <c r="A119" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides, Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B118" s="938" t="inlineStr">
+      <c r="B119" s="943" t="inlineStr">
         <is>
           <t>12/02/2021</t>
         </is>
       </c>
-      <c r="C118" s="941" t="inlineStr">
+      <c r="C119" s="946" t="inlineStr">
         <is>
           <t>Virtual Meeting</t>
         </is>
       </c>
-      <c r="D118" s="941" t="inlineStr">
+      <c r="D119" s="946" t="inlineStr">
         <is>
           <t>World Union of Wholesale Markets</t>
         </is>
       </c>
-      <c r="E118" s="941" t="inlineStr">
+      <c r="E119" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Farm to Fork strategy</t>
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="941" t="inlineStr">
+    <row r="120">
+      <c r="A120" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B119" s="938" t="inlineStr">
+      <c r="B120" s="943" t="inlineStr">
         <is>
           <t>08/02/2021</t>
         </is>
       </c>
-      <c r="C119" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D119" s="941" t="inlineStr">
+      <c r="C120" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D120" s="946" t="inlineStr">
         <is>
           <t>Amazon Europe Core SARL</t>
         </is>
       </c>
-      <c r="E119" s="941" t="inlineStr">
+      <c r="E120" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VC Meeting: Sustainable food systems and Code of Conduct </t>
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="941" t="inlineStr">
+    <row r="121">
+      <c r="A121" s="946" t="inlineStr">
         <is>
           <t>Daphne von Buxhoeveden, Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B120" s="938" t="inlineStr">
+      <c r="B121" s="943" t="inlineStr">
         <is>
           <t>05/02/2021</t>
         </is>
       </c>
-      <c r="C120" s="941" t="inlineStr">
+      <c r="C121" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Teams meeting </t>
         </is>
       </c>
-      <c r="D120" s="941" t="inlineStr">
+      <c r="D121" s="946" t="inlineStr">
         <is>
           <t>MedTech Europe</t>
         </is>
       </c>
-      <c r="E120" s="941" t="inlineStr">
+      <c r="E121" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting with MedTech Europe on new Medical Devices Regulations, MRA with Switzerland and Health Union package. </t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="941" t="inlineStr">
+    <row r="122">
+      <c r="A122" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B121" s="938" t="inlineStr">
+      <c r="B122" s="943" t="inlineStr">
         <is>
           <t>28/01/2021</t>
         </is>
       </c>
-      <c r="C121" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D121" s="941" t="inlineStr">
+      <c r="C122" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D122" s="946" t="inlineStr">
         <is>
           <t>European Sustainable Agriculture through Genome Editing</t>
         </is>
       </c>
-      <c r="E121" s="941" t="inlineStr">
+      <c r="E122" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting: Genome editing. </t>
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="941" t="inlineStr">
+    <row r="123">
+      <c r="A123" s="946" t="inlineStr">
         <is>
           <t>Ines Prainsack, Annukka Ojala</t>
         </is>
       </c>
-      <c r="B122" s="938" t="inlineStr">
+      <c r="B123" s="943" t="inlineStr">
         <is>
           <t>27/01/2021</t>
         </is>
       </c>
-      <c r="C122" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D122" s="941" t="inlineStr">
+      <c r="C123" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D123" s="946" t="inlineStr">
         <is>
           <t>Centre de liaison des industries transformatrices de viande de l'UE</t>
         </is>
       </c>
-      <c r="E122" s="941" t="inlineStr">
+      <c r="E123" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC Meeting - Sustainable Food Systems </t>
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="941" t="inlineStr">
+    <row r="124">
+      <c r="A124" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B123" s="938" t="inlineStr">
+      <c r="B124" s="943" t="inlineStr">
         <is>
           <t>20/01/2021</t>
         </is>
       </c>
-      <c r="C123" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D123" s="941" t="inlineStr">
+      <c r="C124" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D124" s="946" t="inlineStr">
         <is>
           <t>European Heart Network, European Coordination Via Campesina, European Public Health Alliance, International Federation of Organic Agriculture Movements EU Regional Group, Eurocities, Health Care Without Harm Europe, European Environmental Bureau, Stichting Fair Trade Advocacy Office, ICLEI - Local Governments for Sustainability European Secretariat</t>
         </is>
       </c>
-      <c r="E123" s="941" t="inlineStr">
+      <c r="E124" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC Meeting - Discussion on minimum sustainability criteria for public procurement.</t>
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="941" t="inlineStr">
+    <row r="125">
+      <c r="A125" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B124" s="938" t="inlineStr">
+      <c r="B125" s="943" t="inlineStr">
         <is>
           <t>12/01/2021</t>
         </is>
       </c>
-      <c r="C124" s="941" t="inlineStr">
+      <c r="C125" s="946" t="inlineStr">
         <is>
           <t>Brussels, virtual meeting</t>
         </is>
       </c>
-      <c r="D124" s="941" t="inlineStr">
+      <c r="D125" s="946" t="inlineStr">
         <is>
           <t>European Alliance of Associations for Rheumatology</t>
         </is>
       </c>
-      <c r="E124" s="941" t="inlineStr">
+      <c r="E125" s="946" t="inlineStr">
         <is>
           <t>Presentation of EULAR and exchange of views on the challenges of people and patients with RMDs in the context of the Pharmaceutical Strategy</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="941" t="inlineStr">
+    <row r="126">
+      <c r="A126" s="946" t="inlineStr">
         <is>
           <t>Ines Prainsack, Panayiotis Pourgourides</t>
         </is>
       </c>
-      <c r="B125" s="938" t="inlineStr">
+      <c r="B126" s="943" t="inlineStr">
         <is>
           <t>17/12/2020</t>
         </is>
       </c>
-      <c r="C125" s="941" t="inlineStr">
+      <c r="C126" s="946" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="D125" s="941" t="inlineStr">
+      <c r="D126" s="946" t="inlineStr">
         <is>
           <t>International Planned Parenthood Federation European Network</t>
         </is>
       </c>
-      <c r="E125" s="941" t="inlineStr">
+      <c r="E126" s="946" t="inlineStr">
         <is>
           <t>Exchange of views on Health Promotion, Disease Prevention and Management of Non-Communicable Diseases and EU4Health programme.</t>
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="941" t="inlineStr">
+    <row r="127">
+      <c r="A127" s="946" t="inlineStr">
         <is>
           <t>Daphne von Buxhoeveden, Annukka Ojala</t>
         </is>
       </c>
-      <c r="B126" s="938" t="inlineStr">
+      <c r="B127" s="943" t="inlineStr">
         <is>
           <t>10/12/2020</t>
         </is>
       </c>
-      <c r="C126" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D126" s="941" t="inlineStr">
+      <c r="C127" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D127" s="946" t="inlineStr">
         <is>
           <t>MedTech Europe</t>
         </is>
       </c>
-      <c r="E126" s="941" t="inlineStr">
+      <c r="E127" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">VC Meeting - The role of medical technologies in the fight against antimicrobial resistance and healthcare acquired infections   </t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="941" t="inlineStr">
+    <row r="128">
+      <c r="A128" s="946" t="inlineStr">
         <is>
           <t>Ines Prainsack</t>
         </is>
       </c>
-      <c r="B127" s="938" t="inlineStr">
+      <c r="B128" s="943" t="inlineStr">
         <is>
           <t>10/12/2020</t>
         </is>
       </c>
-      <c r="C127" s="941" t="inlineStr">
+      <c r="C128" s="946" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="D127" s="941" t="inlineStr">
+      <c r="D128" s="946" t="inlineStr">
         <is>
           <t>Young European Leadership</t>
         </is>
       </c>
-      <c r="E127" s="941" t="inlineStr">
+      <c r="E128" s="946" t="inlineStr">
         <is>
           <t>Exchange with Youth delegates representing the European Union to the Youth Engagement Group of the G20 on better coordination and youth priorities.</t>
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="941" t="inlineStr">
+    <row r="129">
+      <c r="A129" s="946" t="inlineStr">
         <is>
           <t>Panayiotis Pourgourides, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B128" s="938" t="inlineStr">
+      <c r="B129" s="943" t="inlineStr">
         <is>
           <t>09/12/2020</t>
         </is>
       </c>
-      <c r="C128" s="941" t="inlineStr">
+      <c r="C129" s="946" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="D128" s="941" t="inlineStr">
+      <c r="D129" s="946" t="inlineStr">
         <is>
           <t>Cruelty Free Europe</t>
         </is>
       </c>
-      <c r="E128" s="941" t="inlineStr">
+      <c r="E129" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Introductory exchange of views on animal testing replacements and the pharmaceutical strategy</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="941" t="inlineStr">
+    <row r="130">
+      <c r="A130" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B129" s="938" t="inlineStr">
+      <c r="B130" s="943" t="inlineStr">
         <is>
           <t>24/11/2020</t>
         </is>
       </c>
-      <c r="C129" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D129" s="941" t="inlineStr">
+      <c r="C130" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D130" s="946" t="inlineStr">
         <is>
           <t>European Policy Centre</t>
         </is>
       </c>
-      <c r="E129" s="941" t="inlineStr">
+      <c r="E130" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC  - Policy Dialogue on Tackling Antimicrobial Resistance </t>
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="941" t="inlineStr">
+    <row r="131">
+      <c r="A131" s="946" t="inlineStr">
         <is>
           <t>Panayiotis Pourgourides, Ines Prainsack</t>
         </is>
       </c>
-      <c r="B130" s="938" t="inlineStr">
+      <c r="B131" s="943" t="inlineStr">
         <is>
           <t>18/11/2020</t>
         </is>
       </c>
-      <c r="C130" s="941" t="inlineStr">
+      <c r="C131" s="946" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="D130" s="941" t="inlineStr">
+      <c r="D131" s="946" t="inlineStr">
         <is>
           <t>European Academy of Neurology, European Federation of Neurological Associations, European Brain Council</t>
         </is>
       </c>
-      <c r="E130" s="941" t="inlineStr">
+      <c r="E131" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Exchange of views with EFNA, EAN and EBC on EU4Health, the impact of COVID-19 on mental and neurological health and their participation and contribution in the Health Policy Platform and other fora.
 </t>
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="941" t="inlineStr">
+    <row r="132">
+      <c r="A132" s="946" t="inlineStr">
         <is>
           <t>Ines Prainsack, Panayiotis Pourgourides</t>
         </is>
       </c>
-      <c r="B131" s="938" t="inlineStr">
+      <c r="B132" s="943" t="inlineStr">
         <is>
           <t>13/11/2020</t>
         </is>
       </c>
-      <c r="C131" s="941" t="inlineStr">
+      <c r="C132" s="946" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="D131" s="941" t="inlineStr">
+      <c r="D132" s="946" t="inlineStr">
         <is>
           <t>Animal Task Force</t>
         </is>
       </c>
-      <c r="E131" s="941" t="inlineStr">
+      <c r="E132" s="946" t="inlineStr">
         <is>
           <t>Exchange of views with the Animal Task Force on Farm to Fork, sustainable livestock systems,  latest innovations and scientific finding as well as international partnerships.</t>
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="941" t="inlineStr">
+    <row r="133">
+      <c r="A133" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala, Ines Prainsack</t>
         </is>
       </c>
-      <c r="B132" s="938" t="inlineStr">
+      <c r="B133" s="943" t="inlineStr">
         <is>
           <t>10/11/2020</t>
         </is>
       </c>
-      <c r="C132" s="941" t="inlineStr">
+      <c r="C133" s="946" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="D132" s="941" t="inlineStr">
+      <c r="D133" s="946" t="inlineStr">
         <is>
           <t>World Economic Forum</t>
         </is>
       </c>
-      <c r="E132" s="941" t="inlineStr">
+      <c r="E133" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Presentation by the World Economic Forum of their health related projects and exchange of views on possible synergies.
 </t>
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="941" t="inlineStr">
+    <row r="134">
+      <c r="A134" s="946" t="inlineStr">
         <is>
           <t>Panayiotis Pourgourides, Karolina Herbout-Borczak, Ines Prainsack</t>
         </is>
       </c>
-      <c r="B133" s="938" t="inlineStr">
+      <c r="B134" s="943" t="inlineStr">
         <is>
           <t>09/11/2020</t>
         </is>
       </c>
-      <c r="C133" s="941" t="inlineStr">
+      <c r="C134" s="946" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="D133" s="941" t="inlineStr">
+      <c r="D134" s="946" t="inlineStr">
         <is>
           <t>Euro Foie Gras</t>
         </is>
       </c>
-      <c r="E133" s="941" t="inlineStr">
+      <c r="E134" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Exchange of views with Euro Foie Gras producers on their sector and EC priorities on animal welfare, animal health and slaughter of animals.   </t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="941" t="inlineStr">
+    <row r="135">
+      <c r="A135" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala, Ines Prainsack</t>
         </is>
       </c>
-      <c r="B134" s="938" t="inlineStr">
+      <c r="B135" s="943" t="inlineStr">
         <is>
           <t>09/11/2020</t>
         </is>
       </c>
-      <c r="C134" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D134" s="941" t="inlineStr">
+      <c r="C135" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D135" s="946" t="inlineStr">
         <is>
           <t>Union Européenne du Commerce du Bétail et des Métiers de la Viande</t>
         </is>
       </c>
-      <c r="E134" s="941" t="inlineStr">
+      <c r="E135" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC Meeting - Farm to Fork Strategy and Animal Health </t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="941" t="inlineStr">
+    <row r="136">
+      <c r="A136" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B135" s="938" t="inlineStr">
+      <c r="B136" s="943" t="inlineStr">
         <is>
           <t>06/11/2020</t>
         </is>
       </c>
-      <c r="C135" s="941" t="inlineStr">
+      <c r="C136" s="946" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="D135" s="941" t="inlineStr">
+      <c r="D136" s="946" t="inlineStr">
         <is>
           <t>MEDICINES FOR EUROPE</t>
         </is>
       </c>
-      <c r="E135" s="941" t="inlineStr">
+      <c r="E136" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Covid-19 </t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="941" t="inlineStr">
+    <row r="137">
+      <c r="A137" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B136" s="938" t="inlineStr">
+      <c r="B137" s="943" t="inlineStr">
         <is>
           <t>04/11/2020</t>
         </is>
       </c>
-      <c r="C136" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D136" s="941" t="inlineStr">
+      <c r="C137" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D137" s="946" t="inlineStr">
         <is>
           <t>Stichting IMAGINE Foundation</t>
         </is>
       </c>
-      <c r="E136" s="941" t="inlineStr">
+      <c r="E137" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting - Sustainable Food Systems  </t>
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="941" t="inlineStr">
+    <row r="138">
+      <c r="A138" s="946" t="inlineStr">
         <is>
           <t>Tove Ernst</t>
         </is>
       </c>
-      <c r="B137" s="938" t="inlineStr">
+      <c r="B138" s="943" t="inlineStr">
         <is>
           <t>03/11/2020</t>
         </is>
       </c>
-      <c r="C137" s="941" t="inlineStr">
+      <c r="C138" s="946" t="inlineStr">
         <is>
           <t>Brussels - virtual call</t>
         </is>
       </c>
-      <c r="D137" s="941" t="inlineStr">
+      <c r="D138" s="946" t="inlineStr">
         <is>
           <t>European Organisation for Research and Treatment of Cancer</t>
         </is>
       </c>
-      <c r="E137" s="941" t="inlineStr">
+      <c r="E138" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Exchange of views on Europe’s Beating Cancer Plan  </t>
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="941" t="inlineStr">
+    <row r="139">
+      <c r="A139" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides, Karolina Herbout-Borczak, Ines Prainsack</t>
         </is>
       </c>
-      <c r="B138" s="938" t="inlineStr">
+      <c r="B139" s="943" t="inlineStr">
         <is>
           <t>28/10/2020</t>
         </is>
       </c>
-      <c r="C138" s="941" t="inlineStr">
+      <c r="C139" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels (Webex) </t>
         </is>
       </c>
-      <c r="D138" s="941" t="inlineStr">
+      <c r="D139" s="946" t="inlineStr">
         <is>
           <t>International Platform of Insects for Food and Feed (IPIFF)</t>
         </is>
       </c>
-      <c r="E138" s="941" t="inlineStr">
+      <c r="E139" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Exchange of views with International Platform of Insects for Food and Feed (IPIFF) on their priorities under the Farm to Fork. </t>
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="941" t="inlineStr">
+    <row r="140">
+      <c r="A140" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B139" s="938" t="inlineStr">
+      <c r="B140" s="943" t="inlineStr">
         <is>
           <t>22/10/2020</t>
         </is>
       </c>
-      <c r="C139" s="941" t="inlineStr">
+      <c r="C140" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels (Webex) </t>
         </is>
       </c>
-      <c r="D139" s="941" t="inlineStr">
+      <c r="D140" s="946" t="inlineStr">
         <is>
           <t>European Federation of Pharmaceutical Industries and Associations, MEDICINES FOR EUROPE</t>
         </is>
       </c>
-      <c r="E139" s="941" t="inlineStr">
+      <c r="E140" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Exchange of views on the upcoming pharmaceutical strategy</t>
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="941" t="inlineStr">
+    <row r="141">
+      <c r="A141" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Ines Prainsack</t>
         </is>
       </c>
-      <c r="B140" s="938" t="inlineStr">
+      <c r="B141" s="943" t="inlineStr">
         <is>
           <t>14/10/2020</t>
         </is>
       </c>
-      <c r="C140" s="941" t="inlineStr">
+      <c r="C141" s="946" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="D140" s="941" t="inlineStr">
+      <c r="D141" s="946" t="inlineStr">
         <is>
           <t>Dachverband der österreichischen Sozialversicherung</t>
         </is>
       </c>
-      <c r="E140" s="941" t="inlineStr">
+      <c r="E141" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Presentation of position by the Austrian Social Insurance on the Pharmaceutical Strategy and exchange of views.
 </t>
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="941" t="inlineStr">
+    <row r="142">
+      <c r="A142" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B141" s="938" t="inlineStr">
+      <c r="B142" s="943" t="inlineStr">
         <is>
           <t>08/10/2020</t>
         </is>
       </c>
-      <c r="C141" s="941" t="inlineStr">
+      <c r="C142" s="946" t="inlineStr">
         <is>
           <t>Webex</t>
         </is>
       </c>
-      <c r="D141" s="941" t="inlineStr">
+      <c r="D142" s="946" t="inlineStr">
         <is>
           <t>Fédération Européenne des Fabricants d'Aliments Composés</t>
         </is>
       </c>
-      <c r="E141" s="941" t="inlineStr">
+      <c r="E142" s="946" t="inlineStr">
         <is>
           <t>Role of animal nutrition in promoting sustainable food systems</t>
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="941" t="inlineStr">
+    <row r="143">
+      <c r="A143" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B142" s="938" t="inlineStr">
+      <c r="B143" s="943" t="inlineStr">
         <is>
           <t>01/10/2020</t>
         </is>
       </c>
-      <c r="C142" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D142" s="941" t="inlineStr">
+      <c r="C143" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D143" s="946" t="inlineStr">
         <is>
           <t>Academy of European Law</t>
         </is>
       </c>
-      <c r="E142" s="941" t="inlineStr">
+      <c r="E143" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC on Farm to Fork Strategy  </t>
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="941" t="inlineStr">
+    <row r="144">
+      <c r="A144" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B143" s="938" t="inlineStr">
+      <c r="B144" s="943" t="inlineStr">
         <is>
           <t>01/10/2020</t>
         </is>
       </c>
-      <c r="C143" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D143" s="941" t="inlineStr">
+      <c r="C144" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D144" s="946" t="inlineStr">
         <is>
           <t>BEAM Alliance</t>
         </is>
       </c>
-      <c r="E143" s="941" t="inlineStr">
+      <c r="E144" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Virtual meeting about the Antimicrobial Resistance  </t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="941" t="inlineStr">
+    <row r="145">
+      <c r="A145" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Ralf Kuhne</t>
         </is>
       </c>
-      <c r="B144" s="938" t="inlineStr">
+      <c r="B145" s="943" t="inlineStr">
         <is>
           <t>25/09/2020</t>
         </is>
       </c>
-      <c r="C144" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D144" s="941" t="inlineStr">
+      <c r="C145" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D145" s="946" t="inlineStr">
         <is>
           <t>DIGITALEUROPE</t>
         </is>
       </c>
-      <c r="E144" s="941" t="inlineStr">
+      <c r="E145" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Virtual meeting about European Health Data Space   </t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="941" t="inlineStr">
+    <row r="146">
+      <c r="A146" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B145" s="938" t="inlineStr">
+      <c r="B146" s="943" t="inlineStr">
         <is>
           <t>24/09/2020</t>
         </is>
       </c>
-      <c r="C145" s="941" t="inlineStr">
+      <c r="C146" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Webex </t>
         </is>
       </c>
-      <c r="D145" s="941" t="inlineStr">
+      <c r="D146" s="946" t="inlineStr">
         <is>
           <t>EuropaBio</t>
         </is>
       </c>
-      <c r="E145" s="941" t="inlineStr">
+      <c r="E146" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Exchange of views on the upcoming pharmaceutical strategy 
 </t>
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="941" t="inlineStr">
+    <row r="147">
+      <c r="A147" s="946" t="inlineStr">
         <is>
           <t>Ralf Kuhne, Panayiotis Pourgourides, Ines Prainsack</t>
         </is>
       </c>
-      <c r="B146" s="938" t="inlineStr">
+      <c r="B147" s="943" t="inlineStr">
         <is>
           <t>23/09/2020</t>
         </is>
       </c>
-      <c r="C146" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D146" s="941" t="inlineStr">
+      <c r="C147" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D147" s="946" t="inlineStr">
         <is>
           <t>Deutscher Bauernverband</t>
         </is>
       </c>
-      <c r="E146" s="941" t="inlineStr">
+      <c r="E147" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Virtual meeting, about Farm to Fork, animal welfare, African Swine Fever and international trade. </t>
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="941" t="inlineStr">
+    <row r="148">
+      <c r="A148" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B147" s="938" t="inlineStr">
+      <c r="B148" s="943" t="inlineStr">
         <is>
           <t>16/09/2020</t>
         </is>
       </c>
-      <c r="C147" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D147" s="941" t="inlineStr">
+      <c r="C148" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D148" s="946" t="inlineStr">
         <is>
           <t>International Chemical Secretariat</t>
         </is>
       </c>
-      <c r="E147" s="941" t="inlineStr">
+      <c r="E148" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting on Chemicals strategy</t>
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="941" t="inlineStr">
+    <row r="149">
+      <c r="A149" s="946" t="inlineStr">
         <is>
           <t>Tove Ernst</t>
         </is>
       </c>
-      <c r="B148" s="938" t="inlineStr">
+      <c r="B149" s="943" t="inlineStr">
         <is>
           <t>15/09/2020</t>
         </is>
       </c>
-      <c r="C148" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D148" s="941" t="inlineStr">
+      <c r="C149" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D149" s="946" t="inlineStr">
         <is>
           <t>All Policies for a Healthy Europe</t>
         </is>
       </c>
-      <c r="E148" s="941" t="inlineStr">
+      <c r="E149" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Videoconference, about Health policies in EU </t>
         </is>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="941" t="inlineStr">
+    <row r="150">
+      <c r="A150" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B149" s="938" t="inlineStr">
+      <c r="B150" s="943" t="inlineStr">
         <is>
           <t>15/09/2020</t>
         </is>
       </c>
-      <c r="C149" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D149" s="941" t="inlineStr">
+      <c r="C150" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D150" s="946" t="inlineStr">
         <is>
           <t>EUROPEAN TRADE UNION CONFEDERATION, European Environmental Bureau, Bureau Européen des Unions de Consommateurs</t>
         </is>
       </c>
-      <c r="E149" s="941" t="inlineStr">
+      <c r="E150" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting on Chemicals strategy</t>
         </is>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="941" t="inlineStr">
+    <row r="151">
+      <c r="A151" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B150" s="938" t="inlineStr">
+      <c r="B151" s="943" t="inlineStr">
         <is>
           <t>08/09/2020</t>
         </is>
       </c>
-      <c r="C150" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D150" s="941" t="inlineStr">
+      <c r="C151" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D151" s="946" t="inlineStr">
         <is>
           <t>Stichting IMAGINE Foundation</t>
         </is>
       </c>
-      <c r="E150" s="941" t="inlineStr">
+      <c r="E151" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting - Sustainable Food Systems</t>
         </is>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="941" t="inlineStr">
+    <row r="152">
+      <c r="A152" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Panayiotis Pourgourides</t>
         </is>
       </c>
-      <c r="B151" s="938" t="inlineStr">
+      <c r="B152" s="943" t="inlineStr">
         <is>
           <t>02/09/2020</t>
         </is>
       </c>
-      <c r="C151" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D151" s="941" t="inlineStr">
+      <c r="C152" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D152" s="946" t="inlineStr">
         <is>
           <t>Comité Lapin Interprofessionnel pour la Promotion des Produits</t>
         </is>
       </c>
-      <c r="E151" s="941" t="inlineStr">
+      <c r="E152" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting -  exchange of views on origin labelling and animal welfare under F2F</t>
         </is>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="941" t="inlineStr">
+    <row r="153">
+      <c r="A153" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B152" s="938" t="inlineStr">
+      <c r="B153" s="943" t="inlineStr">
         <is>
           <t>02/09/2020</t>
         </is>
       </c>
-      <c r="C152" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D152" s="941" t="inlineStr">
+      <c r="C153" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D153" s="946" t="inlineStr">
         <is>
           <t>The ADM Capital Foundation Limited</t>
         </is>
       </c>
-      <c r="E152" s="941" t="inlineStr">
+      <c r="E153" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">VC Meeting on the Global Initiative to End Wildlife Crime </t>
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="941" t="inlineStr">
+    <row r="154">
+      <c r="A154" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B153" s="938" t="inlineStr">
+      <c r="B154" s="943" t="inlineStr">
         <is>
           <t>17/07/2020</t>
         </is>
       </c>
-      <c r="C153" s="941" t="inlineStr">
+      <c r="C154" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">WEBEX </t>
         </is>
       </c>
-      <c r="D153" s="941" t="inlineStr">
+      <c r="D154" s="946" t="inlineStr">
         <is>
           <t>European Federation of Public Service Unions</t>
         </is>
       </c>
-      <c r="E153" s="941" t="inlineStr">
+      <c r="E154" s="946" t="inlineStr">
         <is>
           <t>EU4Health and coordination and preparedness of health care systems</t>
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="941" t="inlineStr">
+    <row r="155">
+      <c r="A155" s="946" t="inlineStr">
         <is>
           <t>Ines Prainsack, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B154" s="938" t="inlineStr">
+      <c r="B155" s="943" t="inlineStr">
         <is>
           <t>15/07/2020</t>
         </is>
       </c>
-      <c r="C154" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D154" s="941" t="inlineStr">
+      <c r="C155" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D155" s="946" t="inlineStr">
         <is>
           <t>European farmers, European agri-cooperatives</t>
         </is>
       </c>
-      <c r="E154" s="941" t="inlineStr">
+      <c r="E155" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting: Exchange of views on honey in the context of EU actions on food fraud and food labelling under Farm to Fork. </t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="941" t="inlineStr">
+    <row r="156">
+      <c r="A156" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B155" s="938" t="inlineStr">
+      <c r="B156" s="943" t="inlineStr">
         <is>
           <t>14/07/2020</t>
         </is>
       </c>
-      <c r="C155" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D155" s="941" t="inlineStr">
+      <c r="C156" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D156" s="946" t="inlineStr">
         <is>
           <t>Maa- ja metsätaloustuottajain Keskusliitto – Central Union of Agricultural Producers and Forest Owners</t>
         </is>
       </c>
-      <c r="E155" s="941" t="inlineStr">
+      <c r="E156" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VC Meeting on Farm to Fork Strategy</t>
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="941" t="inlineStr">
+    <row r="157">
+      <c r="A157" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B156" s="938" t="inlineStr">
+      <c r="B157" s="943" t="inlineStr">
         <is>
           <t>14/07/2020</t>
         </is>
       </c>
-      <c r="C156" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D156" s="941" t="inlineStr">
+      <c r="C157" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D157" s="946" t="inlineStr">
         <is>
           <t>Stichting IMAGINE Foundation</t>
         </is>
       </c>
-      <c r="E156" s="941" t="inlineStr">
+      <c r="E157" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting - Sustainable Food Systems</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="941" t="inlineStr">
+    <row r="158">
+      <c r="A158" s="946" t="inlineStr">
         <is>
           <t>Panayiotis Pourgourides, Ines Prainsack</t>
         </is>
       </c>
-      <c r="B157" s="938" t="inlineStr">
+      <c r="B158" s="943" t="inlineStr">
         <is>
           <t>10/07/2020</t>
         </is>
       </c>
-      <c r="C157" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D157" s="941" t="inlineStr">
+      <c r="C158" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D158" s="946" t="inlineStr">
         <is>
           <t>European Forum of Farm Animal Breeders</t>
         </is>
       </c>
-      <c r="E157" s="941" t="inlineStr">
+      <c r="E158" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting on animal welfare, use of antimicrobials, innovative breeding techniques with EFFAB. </t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="941" t="inlineStr">
+    <row r="159">
+      <c r="A159" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B158" s="938" t="inlineStr">
+      <c r="B159" s="943" t="inlineStr">
         <is>
           <t>08/07/2020</t>
         </is>
       </c>
-      <c r="C158" s="941" t="inlineStr">
+      <c r="C159" s="946" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="D158" s="941" t="inlineStr">
+      <c r="D159" s="946" t="inlineStr">
         <is>
           <t>European Chemical Industry Council</t>
         </is>
       </c>
-      <c r="E158" s="941" t="inlineStr">
+      <c r="E159" s="946" t="inlineStr">
         <is>
           <t>Pharmaceutical Strategy</t>
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="941" t="inlineStr">
+    <row r="160">
+      <c r="A160" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B159" s="938" t="inlineStr">
+      <c r="B160" s="943" t="inlineStr">
         <is>
           <t>02/07/2020</t>
         </is>
       </c>
-      <c r="C159" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D159" s="941" t="inlineStr">
+      <c r="C160" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D160" s="946" t="inlineStr">
         <is>
           <t>Cooperativas Agro-alimentarias de España</t>
         </is>
       </c>
-      <c r="E159" s="941" t="inlineStr">
+      <c r="E160" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC Meeting - Farm to Fork Strategy</t>
         </is>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="941" t="inlineStr">
+    <row r="161">
+      <c r="A161" s="946" t="inlineStr">
         <is>
           <t>Ines Prainsack</t>
         </is>
       </c>
-      <c r="B160" s="938" t="inlineStr">
+      <c r="B161" s="943" t="inlineStr">
         <is>
           <t>02/07/2020</t>
         </is>
       </c>
-      <c r="C160" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D160" s="941" t="inlineStr">
+      <c r="C161" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D161" s="946" t="inlineStr">
         <is>
           <t>American Chamber of Commerce to the European Union</t>
         </is>
       </c>
-      <c r="E160" s="941" t="inlineStr">
+      <c r="E161" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting on recovery package and health priorities.</t>
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="941" t="inlineStr">
+    <row r="162">
+      <c r="A162" s="946" t="inlineStr">
         <is>
           <t>Ines Prainsack</t>
         </is>
       </c>
-      <c r="B161" s="938" t="inlineStr">
+      <c r="B162" s="943" t="inlineStr">
         <is>
           <t>30/06/2020</t>
         </is>
       </c>
-      <c r="C161" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D161" s="941" t="inlineStr">
+      <c r="C162" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D162" s="946" t="inlineStr">
         <is>
           <t>European farmers, European agri-cooperatives</t>
         </is>
       </c>
-      <c r="E161" s="941" t="inlineStr">
+      <c r="E162" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting on African Swine Fever </t>
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="941" t="inlineStr">
+    <row r="163">
+      <c r="A163" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala, Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B162" s="938" t="inlineStr">
+      <c r="B163" s="943" t="inlineStr">
         <is>
           <t>25/06/2020</t>
         </is>
       </c>
-      <c r="C162" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D162" s="941" t="inlineStr">
+      <c r="C163" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D163" s="946" t="inlineStr">
         <is>
           <t>Corporate Europe Observatory, Greenpeace European Unit, Pesticide Action Network Europe, ClientEarth AISBL</t>
         </is>
       </c>
-      <c r="E162" s="941" t="inlineStr">
+      <c r="E163" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC-meeting on Farm to Fork Strategy and Pesticides.</t>
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="941" t="inlineStr">
+    <row r="164">
+      <c r="A164" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B163" s="938" t="inlineStr">
+      <c r="B164" s="943" t="inlineStr">
         <is>
           <t>23/06/2020</t>
         </is>
       </c>
-      <c r="C163" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D163" s="941" t="inlineStr">
+      <c r="C164" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D164" s="946" t="inlineStr">
         <is>
           <t>Stichting IMAGINE Foundation</t>
         </is>
       </c>
-      <c r="E163" s="941" t="inlineStr">
+      <c r="E164" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting on Sustainable Food Systems</t>
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="941" t="inlineStr">
+    <row r="165">
+      <c r="A165" s="946" t="inlineStr">
         <is>
           <t>Tove Ernst, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B164" s="938" t="inlineStr">
+      <c r="B165" s="943" t="inlineStr">
         <is>
           <t>22/06/2020</t>
         </is>
       </c>
-      <c r="C164" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D164" s="941" t="inlineStr">
+      <c r="C165" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D165" s="946" t="inlineStr">
         <is>
           <t>The European Society of Intensive Care Medicine</t>
         </is>
       </c>
-      <c r="E164" s="941" t="inlineStr">
+      <c r="E165" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting on training of clinicians in intensive care</t>
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="941" t="inlineStr">
+    <row r="166">
+      <c r="A166" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides, Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B165" s="938" t="inlineStr">
+      <c r="B166" s="943" t="inlineStr">
         <is>
           <t>16/06/2020</t>
         </is>
       </c>
-      <c r="C165" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D165" s="941" t="inlineStr">
+      <c r="C166" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D166" s="946" t="inlineStr">
         <is>
           <t>Center for Global Development</t>
         </is>
       </c>
-      <c r="E165" s="941" t="inlineStr">
+      <c r="E166" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VC Meeting - Global Health and Vaccines</t>
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="941" t="inlineStr">
+    <row r="167">
+      <c r="A167" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B166" s="938" t="inlineStr">
+      <c r="B167" s="943" t="inlineStr">
         <is>
           <t>10/06/2020</t>
         </is>
       </c>
-      <c r="C166" s="941" t="inlineStr">
+      <c r="C167" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="D166" s="941" t="inlineStr">
+      <c r="D167" s="946" t="inlineStr">
         <is>
           <t>European Federation of Pharmaceutical Industries and Associations</t>
         </is>
       </c>
-      <c r="E166" s="941" t="inlineStr">
+      <c r="E167" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Webex meeting upon EFPIA’s request to discuss the forthcoming Pharmaceutical Strategy, the evaluation of the EU Orphan Medicinal Products and Paediatrics regulations and the proposed HTA regulation   </t>
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="941" t="inlineStr">
+    <row r="168">
+      <c r="A168" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B167" s="938" t="inlineStr">
+      <c r="B168" s="943" t="inlineStr">
         <is>
           <t>04/06/2020</t>
         </is>
       </c>
-      <c r="C167" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D167" s="941" t="inlineStr">
+      <c r="C168" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D168" s="946" t="inlineStr">
         <is>
           <t>Chemicals, Health and Environment Monitoring Trust</t>
         </is>
       </c>
-      <c r="E167" s="941" t="inlineStr">
+      <c r="E168" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting - Chemicals Strategy</t>
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="941" t="inlineStr">
+    <row r="169">
+      <c r="A169" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B168" s="938" t="inlineStr">
+      <c r="B169" s="943" t="inlineStr">
         <is>
           <t>03/06/2020</t>
         </is>
       </c>
-      <c r="C168" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D168" s="941" t="inlineStr">
+      <c r="C169" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D169" s="946" t="inlineStr">
         <is>
           <t>Green 10</t>
         </is>
       </c>
-      <c r="E168" s="941" t="inlineStr">
+      <c r="E169" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting to discuss Chemicals Strategy 
 Stakeholders participating: HEAL AND ENVIRONMENT ALLIANCE (HEAL), EUROPEAN ENVIRONMENTAL BUREAU (EEB), EUROPEAN FED. FOR TRANSPORT &amp; ENVIRONMENT (T&amp;E), CLIMATE ACTION NETOWRK EUROPE (CAN EUROPE). </t>
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="941" t="inlineStr">
+    <row r="170">
+      <c r="A170" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo, Karolina Herbout-Borczak, Annukka Ojala</t>
         </is>
       </c>
-      <c r="B169" s="938" t="inlineStr">
+      <c r="B170" s="943" t="inlineStr">
         <is>
           <t>27/05/2020</t>
         </is>
       </c>
-      <c r="C169" s="941" t="inlineStr">
+      <c r="C170" s="946" t="inlineStr">
         <is>
           <t>Brussels Video Meeting</t>
         </is>
       </c>
-      <c r="D169" s="941" t="inlineStr">
+      <c r="D170" s="946" t="inlineStr">
         <is>
           <t>European Federation of Food, Agriculture and Tourism Trade Unions, Fødevareforbundet NNF</t>
         </is>
       </c>
-      <c r="E169" s="941" t="inlineStr">
+      <c r="E170" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Farm to Fork Strategy</t>
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="941" t="inlineStr">
+    <row r="171">
+      <c r="A171" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo, Annukka Ojala</t>
         </is>
       </c>
-      <c r="B170" s="938" t="inlineStr">
+      <c r="B171" s="943" t="inlineStr">
         <is>
           <t>25/05/2020</t>
         </is>
       </c>
-      <c r="C170" s="941" t="inlineStr">
+      <c r="C171" s="946" t="inlineStr">
         <is>
           <t>Brussels - video call meeting</t>
         </is>
       </c>
-      <c r="D170" s="941" t="inlineStr">
+      <c r="D171" s="946" t="inlineStr">
         <is>
           <t>WWF European Policy Programme</t>
         </is>
       </c>
-      <c r="E170" s="941" t="inlineStr">
+      <c r="E171" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Video call meeting - Farm to Fork Strategy Assessment Workshop with the Food Coalition </t>
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="941" t="inlineStr">
+    <row r="172">
+      <c r="A172" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala, Tove Ernst</t>
         </is>
       </c>
-      <c r="B171" s="938" t="inlineStr">
+      <c r="B172" s="943" t="inlineStr">
         <is>
           <t>04/03/2020</t>
         </is>
       </c>
-      <c r="C171" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D171" s="941" t="inlineStr">
+      <c r="C172" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D172" s="946" t="inlineStr">
         <is>
           <t>ReAct - Action on Antibiotic Resistance</t>
         </is>
       </c>
-      <c r="E171" s="941" t="inlineStr">
+      <c r="E172" s="946" t="inlineStr">
         <is>
           <t>Antimicrobial Resistance</t>
         </is>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="941" t="inlineStr">
+    <row r="173">
+      <c r="A173" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides, Panayiotis Pourgourides, Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B172" s="938" t="inlineStr">
+      <c r="B173" s="943" t="inlineStr">
         <is>
           <t>04/03/2020</t>
         </is>
       </c>
-      <c r="C172" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D172" s="941" t="inlineStr">
+      <c r="C173" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D173" s="946" t="inlineStr">
         <is>
           <t>Union of European Beverages Association</t>
         </is>
       </c>
-      <c r="E172" s="941" t="inlineStr">
+      <c r="E173" s="946" t="inlineStr">
         <is>
           <t>Health and food safety, Farm2Fork Strategy &amp; EU Beating Cancer Plan.</t>
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="941" t="inlineStr">
+    <row r="174">
+      <c r="A174" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Panayiotis Pourgourides</t>
         </is>
       </c>
-      <c r="B173" s="938" t="inlineStr">
+      <c r="B174" s="943" t="inlineStr">
         <is>
           <t>02/03/2020</t>
         </is>
       </c>
-      <c r="C173" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D173" s="941" t="inlineStr">
+      <c r="C174" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D174" s="946" t="inlineStr">
         <is>
           <t>spiritsEUROPE</t>
         </is>
       </c>
-      <c r="E173" s="941" t="inlineStr">
+      <c r="E174" s="946" t="inlineStr">
         <is>
           <t>Nutrition, labelling, prevention.</t>
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="941" t="inlineStr">
+    <row r="175">
+      <c r="A175" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala, Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B174" s="938" t="inlineStr">
+      <c r="B175" s="943" t="inlineStr">
         <is>
           <t>28/02/2020</t>
         </is>
       </c>
-      <c r="C174" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D174" s="941" t="inlineStr">
+      <c r="C175" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D175" s="946" t="inlineStr">
         <is>
           <t>European Public Health Alliance</t>
         </is>
       </c>
-      <c r="E174" s="941" t="inlineStr">
+      <c r="E175" s="946" t="inlineStr">
         <is>
           <t>Farm to Fork Strategy</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="941" t="inlineStr">
+    <row r="176">
+      <c r="A176" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo, Annukka Ojala</t>
         </is>
       </c>
-      <c r="B175" s="938" t="inlineStr">
+      <c r="B176" s="943" t="inlineStr">
         <is>
           <t>27/02/2020</t>
         </is>
       </c>
-      <c r="C175" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D175" s="941" t="inlineStr">
+      <c r="C176" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D176" s="946" t="inlineStr">
         <is>
           <t>Euro Coop - European Community of Consumer Co-operatives</t>
         </is>
       </c>
-      <c r="E175" s="941" t="inlineStr">
+      <c r="E176" s="946" t="inlineStr">
         <is>
           <t>Farm to Fork Strategy</t>
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="941" t="inlineStr">
+    <row r="177">
+      <c r="A177" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo, Annukka Ojala</t>
         </is>
       </c>
-      <c r="B176" s="938" t="inlineStr">
+      <c r="B177" s="943" t="inlineStr">
         <is>
           <t>25/02/2020</t>
         </is>
       </c>
-      <c r="C176" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D176" s="941" t="inlineStr">
+      <c r="C177" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D177" s="946" t="inlineStr">
         <is>
           <t>Conseil Européen des Jeunes Agriculteurs</t>
         </is>
       </c>
-      <c r="E176" s="941" t="inlineStr">
+      <c r="E177" s="946" t="inlineStr">
         <is>
           <t>Farm to Fork Strategy</t>
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="941" t="inlineStr">
+    <row r="178">
+      <c r="A178" s="946" t="inlineStr">
         <is>
           <t>Panayiotis Pourgourides</t>
         </is>
       </c>
-      <c r="B177" s="938" t="inlineStr">
+      <c r="B178" s="943" t="inlineStr">
         <is>
           <t>25/02/2020</t>
         </is>
       </c>
-      <c r="C177" s="941" t="inlineStr">
+      <c r="C178" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="D177" s="941" t="inlineStr">
+      <c r="D178" s="946" t="inlineStr">
         <is>
           <t>Eurogroup for Animals</t>
         </is>
       </c>
-      <c r="E177" s="941" t="inlineStr">
+      <c r="E178" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion and exchange of views on animal welfare issues </t>
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="941" t="inlineStr">
+    <row r="179">
+      <c r="A179" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B178" s="938" t="inlineStr">
+      <c r="B179" s="943" t="inlineStr">
         <is>
           <t>20/02/2020</t>
         </is>
       </c>
-      <c r="C178" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D178" s="941" t="inlineStr">
+      <c r="C179" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D179" s="946" t="inlineStr">
         <is>
           <t>European Coordination Via Campesina, International Federation of Organic Agriculture Movements EU Regional Group, Slow Food</t>
         </is>
       </c>
-      <c r="E178" s="941" t="inlineStr">
+      <c r="E179" s="946" t="inlineStr">
         <is>
           <t>Sustainable food systems</t>
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="941" t="inlineStr">
+    <row r="180">
+      <c r="A180" s="946" t="inlineStr">
         <is>
           <t>Giorgios Rossides, Roberto Reig Rodrigo, Annukka Ojala</t>
         </is>
       </c>
-      <c r="B179" s="938" t="inlineStr">
+      <c r="B180" s="943" t="inlineStr">
         <is>
           <t>19/02/2020</t>
         </is>
       </c>
-      <c r="C179" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D179" s="941" t="inlineStr">
+      <c r="C180" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D180" s="946" t="inlineStr">
         <is>
           <t>Corporate Europe Observatory, Greenpeace European Unit, Slow Food, Friends of the Earth Europe</t>
         </is>
       </c>
-      <c r="E179" s="941" t="inlineStr">
+      <c r="E180" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Farm to Fork </t>
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="941" t="inlineStr">
+    <row r="181">
+      <c r="A181" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak</t>
         </is>
       </c>
-      <c r="B180" s="938" t="inlineStr">
+      <c r="B181" s="943" t="inlineStr">
         <is>
           <t>19/02/2020</t>
         </is>
       </c>
-      <c r="C180" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D180" s="941" t="inlineStr">
+      <c r="C181" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D181" s="946" t="inlineStr">
         <is>
           <t>Greenpeace European Unit, WWF European Policy Programme, Naturschutzbund Deutschland e.V., Stichting BirdLife Europe, European Environmental Bureau</t>
         </is>
       </c>
-      <c r="E180" s="941" t="inlineStr">
+      <c r="E181" s="946" t="inlineStr">
         <is>
           <t>Sustainable food systems</t>
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="941" t="inlineStr">
+    <row r="182">
+      <c r="A182" s="946" t="inlineStr">
         <is>
           <t>Olympia Neocleous</t>
         </is>
       </c>
-      <c r="B181" s="938" t="inlineStr">
+      <c r="B182" s="943" t="inlineStr">
         <is>
           <t>14/02/2020</t>
         </is>
       </c>
-      <c r="C181" s="941" t="inlineStr">
+      <c r="C182" s="946" t="inlineStr">
         <is>
           <t>Brussels, Belgium</t>
         </is>
       </c>
-      <c r="D181" s="941" t="inlineStr">
+      <c r="D182" s="946" t="inlineStr">
         <is>
           <t>EUROPEAN ORGANISATION FOR RARE DISEASES</t>
         </is>
       </c>
-      <c r="E181" s="941" t="inlineStr">
+      <c r="E182" s="946" t="inlineStr">
         <is>
           <t>Health Technology Assessment, Rare Diseases</t>
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="941" t="inlineStr">
+    <row r="183">
+      <c r="A183" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B182" s="938" t="inlineStr">
+      <c r="B183" s="943" t="inlineStr">
         <is>
           <t>14/02/2020</t>
         </is>
       </c>
-      <c r="C182" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D182" s="941" t="inlineStr">
+      <c r="C183" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D183" s="946" t="inlineStr">
         <is>
           <t>SYSTEMIQ LIMITED</t>
         </is>
       </c>
-      <c r="E182" s="941" t="inlineStr">
+      <c r="E183" s="946" t="inlineStr">
         <is>
           <t>Discussion on sustainable food systems</t>
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="941" t="inlineStr">
+    <row r="184">
+      <c r="A184" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Giorgios Rossides</t>
         </is>
       </c>
-      <c r="B183" s="938" t="inlineStr">
+      <c r="B184" s="943" t="inlineStr">
         <is>
           <t>12/02/2020</t>
         </is>
       </c>
-      <c r="C183" s="941" t="inlineStr">
+      <c r="C184" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Brussels</t>
         </is>
       </c>
-      <c r="D183" s="941" t="inlineStr">
+      <c r="D184" s="946" t="inlineStr">
         <is>
           <t>EuroCommerce</t>
         </is>
       </c>
-      <c r="E183" s="941" t="inlineStr">
+      <c r="E184" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve">Challenges of sustainable  food system in the context of Farm to fork strategy </t>
         </is>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="941" t="inlineStr">
+    <row r="185">
+      <c r="A185" s="946" t="inlineStr">
         <is>
           <t>Karolina Herbout-Borczak, Annukka Ojala</t>
         </is>
       </c>
-      <c r="B184" s="938" t="inlineStr">
+      <c r="B185" s="943" t="inlineStr">
         <is>
           <t>12/02/2020</t>
         </is>
       </c>
-      <c r="C184" s="941" t="inlineStr">
+      <c r="C185" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> Brussels</t>
         </is>
       </c>
-      <c r="D184" s="941" t="inlineStr">
+      <c r="D185" s="946" t="inlineStr">
         <is>
           <t>Association de l'Aviculture, de l'Industrie et du Commerce de Volailles dans les Pays de l'Union Europeenne asbl</t>
         </is>
       </c>
-      <c r="E184" s="941" t="inlineStr">
+      <c r="E185" s="946" t="inlineStr">
         <is>
           <t>Farm to Fork Strategy</t>
         </is>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="941" t="inlineStr">
+    <row r="186">
+      <c r="A186" s="946" t="inlineStr">
         <is>
           <t>Olympia Neocleous</t>
         </is>
       </c>
-      <c r="B185" s="938" t="inlineStr">
+      <c r="B186" s="943" t="inlineStr">
         <is>
           <t>11/02/2020</t>
         </is>
       </c>
-      <c r="C185" s="941" t="inlineStr">
+      <c r="C186" s="946" t="inlineStr">
         <is>
           <t>Brussels, Belgium</t>
         </is>
       </c>
-      <c r="D185" s="941" t="inlineStr">
+      <c r="D186" s="946" t="inlineStr">
         <is>
           <t>European Federation of Pharmaceutical Industries and Associations</t>
         </is>
       </c>
-      <c r="E185" s="941" t="inlineStr">
+      <c r="E186" s="946" t="inlineStr">
         <is>
           <t>Pharmaceutical strategy</t>
         </is>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="941" t="inlineStr">
+    <row r="187">
+      <c r="A187" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B186" s="938" t="inlineStr">
+      <c r="B187" s="943" t="inlineStr">
         <is>
           <t>05/02/2020</t>
         </is>
       </c>
-      <c r="C186" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D186" s="941" t="inlineStr">
+      <c r="C187" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D187" s="946" t="inlineStr">
         <is>
           <t>Institute for European Environmental Policy</t>
         </is>
       </c>
-      <c r="E186" s="941" t="inlineStr">
+      <c r="E187" s="946" t="inlineStr">
         <is>
           <t>Discussion on sustainable food chains</t>
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="941" t="inlineStr">
+    <row r="188">
+      <c r="A188" s="946" t="inlineStr">
         <is>
           <t>Annukka Ojala</t>
         </is>
       </c>
-      <c r="B187" s="938" t="inlineStr">
+      <c r="B188" s="943" t="inlineStr">
         <is>
           <t>23/01/2020</t>
         </is>
       </c>
-      <c r="C187" s="941" t="inlineStr">
+      <c r="C188" s="946" t="inlineStr">
         <is>
           <t xml:space="preserve"> BRUSSELS</t>
         </is>
       </c>
-      <c r="D187" s="941" t="inlineStr">
+      <c r="D188" s="946" t="inlineStr">
         <is>
           <t>European Dairy Association aisbl</t>
         </is>
       </c>
-      <c r="E187" s="941" t="inlineStr">
+      <c r="E188" s="946" t="inlineStr">
         <is>
           <t>FARM TO FORK</t>
         </is>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="941" t="inlineStr">
+    <row r="189">
+      <c r="A189" s="946" t="inlineStr">
         <is>
           <t>Roberto Reig Rodrigo</t>
         </is>
       </c>
-      <c r="B188" s="938" t="inlineStr">
+      <c r="B189" s="943" t="inlineStr">
         <is>
           <t>14/01/2020</t>
         </is>
       </c>
-      <c r="C188" s="941" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D188" s="941" t="inlineStr">
+      <c r="C189" s="946" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D189" s="946" t="inlineStr">
         <is>
           <t>WWF European Policy Programme</t>
         </is>
       </c>
-      <c r="E188" s="941" t="inlineStr">
+      <c r="E189" s="946" t="inlineStr">
         <is>
           <t>Discussion on EU Biodiversity Policy</t>
         </is>
